--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>A.5.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Understanding the organization and its context</t>
+          <t>Policies for information security</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The document indirectly references the organization's context by defining the scope and critical activities, but it lacks a clear, explicit analysis or statement of the internal and external issues relevant to the ISMS.</t>
+          <t>The document includes a Business Continuity Plan and references an IT Security Policy but does not explicitly present or reference a comprehensive information security policy covering all aspects required by ISO/IEC 27001:2022 A.5.1.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Include a formal section describing the organization's context including internal and external factors affecting the ISMS.</t>
+          <t>Develop and formally document a comprehensive Information Security Policy that addresses all relevant aspects of information security and ensure it is approved and communicated to all relevant stakeholders.</t>
         </is>
       </c>
     </row>
@@ -506,34 +506,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>A.5.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Understanding the needs and expectations of interested parties</t>
+          <t>Information security roles and responsibilities</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>🟡</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>The document mentions communication responsibilities with interested parties and public media but does not explicitly identify or analyze all relevant interested parties and their requirements.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Add a detailed identification and analysis of interested parties and their relevant requirements affecting the ISMS.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,32 +533,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>A.5.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Determining the scope of the ISMS</t>
+          <t>Segregation of duties</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The document states the Business Continuity Plan applies to all critical activities inside the ISMS scope but does not explicitly define or document the ISMS scope.</t>
+          <t>No evidence of segregation of duties controls or policies to reduce risk of unauthorized or unintentional modification or misuse of information or assets.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Formally define and document the ISMS scope, including boundaries and applicability.</t>
+          <t>Define and implement segregation of duties policies and procedures to ensure critical tasks are divided among different individuals to reduce risk.</t>
         </is>
       </c>
     </row>
@@ -576,34 +568,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>A.5.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Information security management system</t>
+          <t>Management responsibilities</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The document focuses on business continuity and incident response but does not describe the establishment, implementation, maintenance, and continual improvement of the ISMS.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Include a description of the ISMS framework, processes, and continual improvement approach.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -611,34 +595,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>A.5.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leadership and commitment</t>
+          <t>Contact with authorities</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🟡</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Leadership roles and responsibilities are described for crisis management and operational decisions, but explicit evidence of leadership commitment to the ISMS and information security is not clearly documented.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Document leadership commitment statements and involvement in ISMS activities beyond business continuity.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,17 +622,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>A.5.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Information security policy</t>
+          <t>Contact with special interest groups</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,12 +642,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No information security policy is included or referenced in the document.</t>
+          <t>No mention of contact or engagement with special interest groups or professional bodies related to information security.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Develop, document, and communicate an information security policy aligned with the ISMS objectives.</t>
+          <t>Establish and document procedures for maintaining contact with relevant special interest groups and professional bodies to stay informed on security trends and threats.</t>
         </is>
       </c>
     </row>
@@ -681,26 +657,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>A.5.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Organizational roles, responsibilities and authorities</t>
+          <t>Threat intelligence</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No evidence of processes or mechanisms for gathering, analyzing, and using threat intelligence.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Implement a threat intelligence process to collect and analyze relevant threat information to support risk management and incident response.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,17 +692,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.1.1</t>
+          <t>A.5.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Actions to address risks and opportunities - General</t>
+          <t>Information security in project management</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -728,12 +712,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No documented process or evidence of actions to address information security risks and opportunities.</t>
+          <t>No reference to integrating information security requirements into project management processes.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Establish and document processes to identify and address risks and opportunities related to information security.</t>
+          <t>Incorporate information security requirements and controls into project management methodologies and document this integration.</t>
         </is>
       </c>
     </row>
@@ -743,32 +727,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6.1.2</t>
+          <t>A.5.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Information security risk assessment</t>
+          <t>Inventory of information and other associated assets</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No risk assessment process or results are described.</t>
+          <t>The document references lists of business continuity sites and recovery plans but does not explicitly provide or reference a comprehensive inventory of information and associated assets.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Implement and document an information security risk assessment process.</t>
+          <t>Develop and maintain a detailed inventory of information assets and associated assets, including ownership and classification.</t>
         </is>
       </c>
     </row>
@@ -778,17 +762,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.1.3</t>
+          <t>A.5.10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Information security risk treatment</t>
+          <t>Acceptable use of information and other associated assets</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -798,12 +782,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No information security risk treatment process or plans are described.</t>
+          <t>No policies or rules regarding acceptable use of information and assets are documented.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Develop and document risk treatment plans and processes.</t>
+          <t>Establish and communicate an Acceptable Use Policy covering information and associated assets.</t>
         </is>
       </c>
     </row>
@@ -813,17 +797,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>A.5.11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Information security objectives and planning to achieve them</t>
+          <t>Return of assets</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -833,12 +817,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No information security objectives or planning to achieve them are documented.</t>
+          <t>No procedures or policies addressing the return of assets upon termination or change of employment or contract.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Define measurable information security objectives and plans to achieve them.</t>
+          <t>Define and implement procedures to ensure return of organizational assets when no longer required or upon termination.</t>
         </is>
       </c>
     </row>
@@ -848,32 +832,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>A.5.12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Classification of information</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Resources for business continuity are described, but there is no explicit mention of resources allocated for the ISMS as a whole.</t>
+          <t>No evidence of information classification scheme or policies.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Document resource allocation for ISMS implementation and maintenance.</t>
+          <t>Develop and implement an information classification policy and scheme to categorize information based on sensitivity and impact.</t>
         </is>
       </c>
     </row>
@@ -883,17 +867,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>A.5.13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Competence</t>
+          <t>Labelling of information</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -903,12 +887,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No evidence of competence determination, training, or evaluation related to information security.</t>
+          <t>No mention of labelling requirements or procedures for classified information.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Establish and document competence requirements and training plans for ISMS roles.</t>
+          <t>Establish labelling procedures aligned with the information classification scheme.</t>
         </is>
       </c>
     </row>
@@ -918,17 +902,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>A.5.14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Awareness</t>
+          <t>Information transfer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -938,12 +922,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No information on awareness programs or activities for information security.</t>
+          <t>No documented controls or procedures for secure information transfer.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Implement and document information security awareness initiatives.</t>
+          <t>Implement and document secure information transfer policies and procedures.</t>
         </is>
       </c>
     </row>
@@ -953,26 +937,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>A.5.15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No explicit access control policies or procedures described.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Develop and enforce access control policies and procedures to restrict access to information and assets.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -980,26 +972,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>A.5.16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Documented information</t>
+          <t>Identity management</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No mention of identity management processes or controls.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Implement identity management processes to ensure proper identification and management of users.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1007,32 +1007,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>A.5.17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Operational planning and control</t>
+          <t>Authentication information</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Operational controls are described for business continuity but not explicitly for the ISMS processes.</t>
+          <t>No documented controls or policies for managing authentication information.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Document operational planning and controls for ISMS activities.</t>
+          <t>Establish policies and procedures for secure management of authentication information.</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>A.5.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Monitoring, measurement, analysis and evaluation</t>
+          <t>Access rights</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No documented monitoring or measurement processes for ISMS performance.</t>
+          <t>No evidence of formal processes for granting, reviewing, and revoking access rights.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Establish and document monitoring and measurement processes for ISMS.</t>
+          <t>Define and implement access rights management processes including periodic review.</t>
         </is>
       </c>
     </row>
@@ -1077,32 +1077,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>A.5.19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Internal audit</t>
+          <t>Information security in supplier relationships</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No internal audit process or schedule described.</t>
+          <t>The document references contacts with vendors and suppliers but lacks documented information security requirements or controls in supplier relationships.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Implement and document an internal audit program for the ISMS.</t>
+          <t>Develop and implement information security requirements and controls for managing supplier relationships.</t>
         </is>
       </c>
     </row>
@@ -1112,32 +1112,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>A.5.20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Management review</t>
+          <t>Addressing information security within supplier agreements</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No evidence of management review meetings or outputs.</t>
+          <t>Supplier agreements are referenced indirectly via vendor contacts and incident response contacts, but there is no explicit mention of addressing information security requirements within supplier agreements.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Establish and document management review process and records.</t>
+          <t>Include explicit clauses or policies that define information security requirements to be included in supplier agreements and ensure these are documented and managed.</t>
         </is>
       </c>
     </row>
@@ -1147,32 +1147,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>A.5.21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nonconformity and corrective action</t>
+          <t>Managing information security in the ICT supply chain</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>No process for handling nonconformities or corrective actions is described.</t>
+          <t>The document references suppliers and external parties in recovery plans and incident response, but lacks a formal process or controls specifically for managing information security risks in the ICT supply chain.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Develop and document nonconformity and corrective action processes.</t>
+          <t>Develop and document processes to assess and manage information security risks related to ICT suppliers and the supply chain.</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1182,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>A.5.22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Continual improvement</t>
+          <t>Monitoring, review and change management of supplier services</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No continual improvement process or evidence is described.</t>
+          <t>No mention of monitoring, reviewing, or managing changes in supplier services is found in the document.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Implement continual improvement processes for the ISMS.</t>
+          <t>Establish and document procedures for ongoing monitoring, review, and change management of supplier services to ensure continued compliance with information security requirements.</t>
         </is>
       </c>
     </row>
@@ -1217,32 +1217,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A.5.1</t>
+          <t>A.5.23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.1</t>
+          <t>Information security for use of cloud services</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>Cloud services are mentioned (e.g., CRM Cloud system, cloud-based telephony, Google Drive storage), but there is no explicit information security control or policy addressing cloud service usage.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Define and document information security requirements and controls specific to the use of cloud services, including risk assessments and supplier security obligations.</t>
         </is>
       </c>
     </row>
@@ -1252,34 +1252,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A.5.2</t>
+          <t>A.5.24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.2</t>
+          <t>Information security incident management planning and preparation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1287,34 +1279,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A.5.3</t>
+          <t>A.5.25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.3</t>
+          <t>Assessment and decision on information security events</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1322,34 +1306,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A.5.4</t>
+          <t>A.5.26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.4</t>
+          <t>Response to information security incidents</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1357,32 +1333,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A.5.5</t>
+          <t>A.5.27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.5</t>
+          <t>Learning from information security incidents</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>The document includes incident logging and response but does not explicitly describe processes for learning from incidents or implementing improvements based on lessons learned.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Implement and document a formal process for post-incident review and continuous improvement based on lessons learned from information security incidents.</t>
         </is>
       </c>
     </row>
@@ -1392,32 +1368,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A.5.6</t>
+          <t>A.5.28</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.6</t>
+          <t>Collection of evidence</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>Preservation of damaged assets is mentioned, but there is no detailed procedure for collection, handling, and preservation of digital or physical evidence related to information security incidents.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Develop and document procedures for evidence collection, handling, and preservation to support investigations and potential legal actions.</t>
         </is>
       </c>
     </row>
@@ -1427,34 +1403,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A.5.7</t>
+          <t>A.5.29</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.7</t>
+          <t>Information security during disruption</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1462,34 +1430,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A.5.8</t>
+          <t>A.5.30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.8</t>
+          <t>ICT readiness for business continuity</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1497,34 +1457,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A.5.9</t>
+          <t>A.5.31</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.9</t>
+          <t>Identification of legal, statutory, regulatory and contractual requirements</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1532,17 +1484,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A.5.10</t>
+          <t>A.5.32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.10</t>
+          <t>Intellectual property rights</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1552,12 +1504,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>No reference to intellectual property rights protection or management is found in the document.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Include policies and controls addressing the protection and management of intellectual property rights.</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1519,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A.5.11</t>
+          <t>A.5.33</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.11</t>
+          <t>Protection of records</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>The document mentions storage locations for the Business Continuity Plan but lacks detailed controls for protection, retention, and integrity of records.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Define and implement controls for protection, retention, and integrity of records relevant to information security and business continuity.</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1554,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A.5.12</t>
+          <t>A.5.34</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.12</t>
+          <t>Privacy and protection of PII</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>Data leakage (GDPR) is mentioned in incident response, but there is no comprehensive privacy policy or controls for protection of personally identifiable information (PII).</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Develop and document privacy policies and controls to protect PII in compliance with applicable regulations such as GDPR.</t>
         </is>
       </c>
     </row>
@@ -1637,17 +1589,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A.5.13</t>
+          <t>A.5.35</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.13</t>
+          <t>Independent review of information security</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1657,12 +1609,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>No mention of independent or external reviews or audits of information security is found.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Establish and document a process for independent review or audit of the information security management system and related controls.</t>
         </is>
       </c>
     </row>
@@ -1672,32 +1624,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A.5.14</t>
+          <t>A.5.36</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.14</t>
+          <t>Compliance with policies and standards for information security</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>The document references ISO standards and policies but does not explicitly describe how compliance with information security policies and standards is monitored or enforced.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Implement and document processes to monitor and ensure compliance with information security policies and standards.</t>
         </is>
       </c>
     </row>
@@ -1707,34 +1659,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A.5.15</t>
+          <t>A.5.37</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.15</t>
+          <t>Documented operating procedures</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1742,17 +1686,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A.5.16</t>
+          <t>A.6.1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.16</t>
+          <t>Screening</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1762,12 +1706,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No organizational controls from Annex A are addressed in the document.</t>
+          <t>No information on personnel screening or background checks is provided in the document.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Implement and document organizational controls as per ISO/IEC 27001 Annex A.</t>
+          <t>Develop and implement personnel screening procedures as part of the human resource security controls.</t>
         </is>
       </c>
     </row>
@@ -1777,17 +1721,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A.5.17</t>
+          <t>A.6.2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.17</t>
+          <t>Terms and conditions of employment</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1797,12 +1741,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The document does not mention or address control A.5.17 or its requirements.</t>
+          <t>The document does not mention terms and conditions of employment or how information security requirements are integrated into employment contracts.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Add specific policies, procedures, or controls addressing A.5.17 requirements as per ISO/IEC 27001:2022.</t>
+          <t>Include policies or procedures that define and communicate information security terms and conditions in employment contracts.</t>
         </is>
       </c>
     </row>
@@ -1812,17 +1756,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A.5.18</t>
+          <t>A.6.3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.18</t>
+          <t>Information security awareness, education and training</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1832,12 +1776,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No reference or implementation details related to control A.5.18 found in the document.</t>
+          <t>No reference to information security awareness, education, or training programs for employees is found in the document.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Develop and document controls and processes to comply with A.5.18.</t>
+          <t>Develop and document an information security awareness, education, and training program for all employees.</t>
         </is>
       </c>
     </row>
@@ -1847,17 +1791,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A.5.19</t>
+          <t>A.6.4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.19</t>
+          <t>Disciplinary process</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1867,12 +1811,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Control A.5.19 is not addressed or mentioned in the document.</t>
+          <t>The document does not address disciplinary processes related to information security breaches or violations.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Include relevant policies and procedures to meet A.5.19 requirements.</t>
+          <t>Establish and document a disciplinary process for information security violations.</t>
         </is>
       </c>
     </row>
@@ -1882,17 +1826,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A.5.20</t>
+          <t>A.6.5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.20</t>
+          <t>Responsibilities after termination or change of employment</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1902,12 +1846,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>No evidence of control A.5.20 implementation in the document.</t>
+          <t>No mention of responsibilities or controls related to employees after termination or change of employment.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Add documentation and controls to fulfill A.5.20.</t>
+          <t>Define and document responsibilities and controls for employees after termination or change of employment, including return of assets and revocation of access.</t>
         </is>
       </c>
     </row>
@@ -1917,17 +1861,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A.5.21</t>
+          <t>A.6.6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.21</t>
+          <t>Confidentiality or non-disclosure agreements</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1937,12 +1881,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>The document does not cover control A.5.21 requirements.</t>
+          <t>The document does not mention confidentiality or non-disclosure agreements for employees or contractors.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.5.21.</t>
+          <t>Implement and document confidentiality or non-disclosure agreements as part of employment or contractor onboarding.</t>
         </is>
       </c>
     </row>
@@ -1952,32 +1896,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A.5.22</t>
+          <t>A.6.7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.22</t>
+          <t>Remote working</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No mention or evidence of control A.5.22 in the document.</t>
+          <t>The document states that all employees except the Studio Department can work from home in the cloud, but lacks detailed security controls or policies for remote working.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Establish and document processes to comply with A.5.22.</t>
+          <t>Develop and document comprehensive remote working policies including security requirements, access controls, and monitoring.</t>
         </is>
       </c>
     </row>
@@ -1987,34 +1931,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A.5.23</t>
+          <t>A.6.8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.23</t>
+          <t>Information security event reporting</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Control A.5.23 is not addressed in the document.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Develop appropriate controls and document compliance with A.5.23.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2022,17 +1958,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A.5.24</t>
+          <t>A.7.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.24</t>
+          <t>Physical security perimeter</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2042,12 +1978,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>No information or controls related to A.5.24 found.</t>
+          <t>No description of physical security perimeters or boundaries protecting facilities is provided.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Add controls and procedures to meet A.5.24 requirements.</t>
+          <t>Define and document physical security perimeters for all facilities.</t>
         </is>
       </c>
     </row>
@@ -2057,17 +1993,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A.5.25</t>
+          <t>A.7.2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.25</t>
+          <t>Physical entry controls</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2077,12 +2013,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>The document does not address control A.5.25.</t>
+          <t>No information on physical entry controls such as access cards, locks, or visitor management.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.5.25.</t>
+          <t>Implement and document physical entry control measures.</t>
         </is>
       </c>
     </row>
@@ -2092,17 +2028,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A.5.26</t>
+          <t>A.7.3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.26</t>
+          <t>Securing offices, rooms and facilities</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2112,12 +2048,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No evidence of A.5.26 control implementation.</t>
+          <t>No details on securing offices, rooms, or facilities against unauthorized access or environmental threats.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Add relevant policies and controls to comply with A.5.26.</t>
+          <t>Establish and document procedures for securing offices, rooms, and facilities.</t>
         </is>
       </c>
     </row>
@@ -2127,17 +2063,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A.5.27</t>
+          <t>A.7.4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.27</t>
+          <t>Physical security monitoring</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2147,12 +2083,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Control A.5.27 is not mentioned or implemented.</t>
+          <t>No mention of physical security monitoring such as CCTV or alarm systems.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.5.27.</t>
+          <t>Implement physical security monitoring controls and document their use.</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2098,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A.5.28</t>
+          <t>A.7.5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.28</t>
+          <t>Protecting against physical and environmental threats</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2182,12 +2118,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No reference to A.5.28 found in the document.</t>
+          <t>No controls or procedures addressing protection against physical and environmental threats are described.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Include controls and processes to meet A.5.28.</t>
+          <t>Develop and document measures to protect facilities and assets from physical and environmental threats.</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2133,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A.5.29</t>
+          <t>A.7.6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.29</t>
+          <t>Working in secure areas</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2217,12 +2153,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Control A.5.29 is not addressed.</t>
+          <t>No information on controls for working in secure areas or restricted zones.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Implement and document A.5.29 controls.</t>
+          <t>Define and implement controls for working in secure areas.</t>
         </is>
       </c>
     </row>
@@ -2232,17 +2168,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A.5.30</t>
+          <t>A.7.7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.30</t>
+          <t>Clear desk and clear screen</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2252,12 +2188,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No evidence of A.5.30 control in the document.</t>
+          <t>No mention of clear desk and clear screen policies to protect sensitive information.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Add relevant controls and documentation for A.5.30.</t>
+          <t>Establish and communicate clear desk and clear screen policies.</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2203,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A.5.31</t>
+          <t>A.7.8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.31</t>
+          <t>Equipment siting and protection</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2287,12 +2223,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Control A.5.31 is not mentioned or implemented.</t>
+          <t>No details on equipment siting and protection to reduce risks of theft or damage.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.5.31.</t>
+          <t>Document procedures for equipment siting and protection.</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2238,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A.5.32</t>
+          <t>A.7.9</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.32</t>
+          <t>Security of assets off-premises</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2322,12 +2258,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>No reference or implementation of A.5.32 found.</t>
+          <t>No controls or guidance on security of assets taken off-premises.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Add controls and processes to comply with A.5.32.</t>
+          <t>Implement policies and controls for securing assets off-premises.</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2273,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A.5.33</t>
+          <t>A.7.10</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.33</t>
+          <t>Storage media</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2357,12 +2293,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Control A.5.33 is not addressed in the document.</t>
+          <t>No mention of controls for secure handling, storage, and disposal of storage media.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.5.33.</t>
+          <t>Define and document controls for storage media management.</t>
         </is>
       </c>
     </row>
@@ -2372,32 +2308,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A.5.34</t>
+          <t>A.7.11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.34</t>
+          <t>Supporting utilities</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No evidence of A.5.34 control implementation.</t>
+          <t>The document lists utilities such as electricity and internet access with responsible persons, but lacks detailed controls to ensure their security and availability.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Add relevant policies and controls to comply with A.5.34.</t>
+          <t>Develop and document controls to secure supporting utilities and ensure their availability.</t>
         </is>
       </c>
     </row>
@@ -2407,17 +2343,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A.5.35</t>
+          <t>A.7.12</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.35</t>
+          <t>Cabling security</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2427,12 +2363,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Control A.5.35 is not mentioned or implemented.</t>
+          <t>No information on cabling security to prevent interception or damage.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.5.35.</t>
+          <t>Implement and document cabling security measures.</t>
         </is>
       </c>
     </row>
@@ -2442,32 +2378,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A.5.36</t>
+          <t>A.7.13</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.36</t>
+          <t>Equipment maintenance</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>No reference or implementation of A.5.36 found.</t>
+          <t>The document mentions repair and purchasing of equipment in the restoration phase but does not detail a formal equipment maintenance process or schedule.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Add controls and processes to comply with A.5.36.</t>
+          <t>Establish and document a formal equipment maintenance policy and procedures to ensure equipment is regularly maintained to prevent failures.</t>
         </is>
       </c>
     </row>
@@ -2477,17 +2413,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A.5 (Organizational Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A.5.37</t>
+          <t>A.7.14</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.5.37</t>
+          <t>Secure disposal or re‑use of equipment</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2497,12 +2433,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Control A.5.37 is not addressed in the document.</t>
+          <t>No mention of secure disposal or re-use of equipment is found in the document.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.5.37.</t>
+          <t>Develop and include procedures for secure disposal or re-use of equipment to prevent unauthorized access to information.</t>
         </is>
       </c>
     </row>
@@ -2512,32 +2448,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A.6.1</t>
+          <t>A.8.1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.1</t>
+          <t>User endpoint devices</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>No mention or evidence of A.6.1 control in the document.</t>
+          <t>The document references workstations and laptops in recovery plans but lacks specific controls or policies for managing user endpoint devices.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Add policies and procedures addressing A.6.1.</t>
+          <t>Implement and document controls for managing user endpoint devices including configuration, security, and usage policies.</t>
         </is>
       </c>
     </row>
@@ -2547,17 +2483,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A.6.2</t>
+          <t>A.8.2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.2</t>
+          <t>Privileged access rights</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2567,12 +2503,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Control A.6.2 is not addressed.</t>
+          <t>No information on management or control of privileged access rights is provided.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.6.2.</t>
+          <t>Establish and document procedures for granting, reviewing, and revoking privileged access rights.</t>
         </is>
       </c>
     </row>
@@ -2582,17 +2518,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A.6.3</t>
+          <t>A.8.3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.3</t>
+          <t>Information access restriction</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2602,12 +2538,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No evidence of A.6.3 control implementation.</t>
+          <t>The document does not address restrictions on information access.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Add relevant policies and controls for A.6.3.</t>
+          <t>Define and implement access control policies to restrict information access based on roles and responsibilities.</t>
         </is>
       </c>
     </row>
@@ -2617,17 +2553,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A.6.4</t>
+          <t>A.8.4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.4</t>
+          <t>Access to source code</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2637,12 +2573,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Control A.6.4 is not mentioned or implemented.</t>
+          <t>No mention of controls related to access to source code.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.6.4.</t>
+          <t>Develop and document controls to restrict and monitor access to source code.</t>
         </is>
       </c>
     </row>
@@ -2652,17 +2588,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A.6.5</t>
+          <t>A.8.5</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.5</t>
+          <t>Secure authentication</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2672,12 +2608,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>No reference or implementation of A.6.5 found.</t>
+          <t>No details on authentication mechanisms or policies are provided.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Add controls and processes to comply with A.6.5.</t>
+          <t>Implement and document secure authentication methods, including multi-factor authentication where appropriate.</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2623,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A.6.6</t>
+          <t>A.8.6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.6</t>
+          <t>Capacity management</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2707,12 +2643,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Control A.6.6 is not addressed in the document.</t>
+          <t>No information on capacity management is included.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.6.6.</t>
+          <t>Establish capacity management processes to ensure IT resources meet current and future business requirements.</t>
         </is>
       </c>
     </row>
@@ -2722,32 +2658,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A.6.7</t>
+          <t>A.8.7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.7</t>
+          <t>Protection against malware</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No evidence of A.6.7 control implementation.</t>
+          <t>The Incident Response Plan includes handling of malware incidents but lacks proactive malware protection controls.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Add relevant policies and controls for A.6.7.</t>
+          <t>Implement and document proactive malware protection measures such as antivirus software, regular updates, and user awareness.</t>
         </is>
       </c>
     </row>
@@ -2757,17 +2693,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A.6.8</t>
+          <t>A.8.8</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.6.8</t>
+          <t>Management of technical vulnerabilities</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2777,12 +2713,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Control A.6.8 is not mentioned or implemented.</t>
+          <t>No mention of vulnerability management processes.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Develop and document controls for A.6.8.</t>
+          <t>Develop and implement a vulnerability management program including regular scanning, assessment, and remediation.</t>
         </is>
       </c>
     </row>
@@ -2792,32 +2728,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A.7.1</t>
+          <t>A.8.9</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.1</t>
+          <t>Configuration management</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>The document mentions responsibility for access to alternative sites and lists business continuity sites but lacks detailed physical security controls.</t>
+          <t>No details on configuration management are provided.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Enhance documentation with detailed physical security controls, access management, and monitoring measures as required by A.7.1.</t>
+          <t>Establish configuration management procedures to ensure secure and consistent configuration of IT assets.</t>
         </is>
       </c>
     </row>
@@ -2827,17 +2763,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A.7.2</t>
+          <t>A.8.10</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.2</t>
+          <t>Information deletion</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2847,12 +2783,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No specific details on physical entry controls or visitor management.</t>
+          <t>No information on secure information deletion is found.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Implement and document physical entry controls and visitor management procedures.</t>
+          <t>Implement policies and procedures for secure deletion of information when no longer required.</t>
         </is>
       </c>
     </row>
@@ -2862,17 +2798,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A.7.3</t>
+          <t>A.8.11</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.3</t>
+          <t>Data masking</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2882,12 +2818,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No mention of securing offices, rooms, or facilities.</t>
+          <t>No mention of data masking techniques or policies.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Add controls for securing physical locations and sensitive areas.</t>
+          <t>Consider implementing data masking controls to protect sensitive information in non-production environments.</t>
         </is>
       </c>
     </row>
@@ -2897,32 +2833,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A.7.4</t>
+          <t>A.8.12</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.4</t>
+          <t>Data leakage prevention</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>No evidence of controls for protecting equipment from physical and environmental threats.</t>
+          <t>Data leakage incidents are addressed reactively in the Incident Response Plan but no preventive controls are described.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Establish and document controls for equipment protection.</t>
+          <t>Implement preventive data leakage controls such as DLP tools, policies, and user training.</t>
         </is>
       </c>
     </row>
@@ -2932,34 +2868,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A.7.5</t>
+          <t>A.8.13</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.5</t>
+          <t>Information backup</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>No mention of working in secure areas or segregation of duties in physical environments.</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Implement and document controls for secure working areas.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2967,34 +2895,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A.7.6</t>
+          <t>A.8.14</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.6</t>
+          <t>Redundancy of information processing facilities</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>No evidence of controls for secure disposal or reuse of equipment.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Add procedures for secure disposal and reuse of equipment.</t>
-        </is>
-      </c>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3002,17 +2922,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A.7.7</t>
+          <t>A.8.15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.7</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3022,12 +2942,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>No mention of physical protection against theft or unauthorized access.</t>
+          <t>No mention of logging or log management.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Implement physical protection measures and document them.</t>
+          <t>Establish logging and log management policies and procedures to record and review relevant events.</t>
         </is>
       </c>
     </row>
@@ -3037,17 +2957,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A.7.8</t>
+          <t>A.8.16</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.8</t>
+          <t>Monitoring activities</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3057,12 +2977,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>No evidence of environmental controls such as fire detection or suppression.</t>
+          <t>No information on monitoring activities is provided.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Add environmental protection controls and monitoring.</t>
+          <t>Implement monitoring controls to detect and respond to security events and anomalies.</t>
         </is>
       </c>
     </row>
@@ -3072,17 +2992,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A.7.9</t>
+          <t>A.8.17</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.9</t>
+          <t>Clock synchronisation</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3092,12 +3012,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>No mention of physical security monitoring or surveillance.</t>
+          <t>The document does not mention any policy or procedure related to clock synchronization of information systems.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Implement and document physical security monitoring controls.</t>
+          <t>Establish and document procedures to ensure accurate and consistent clock synchronization across all relevant systems to support event logging and security monitoring.</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3027,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A.7.10</t>
+          <t>A.8.18</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.10</t>
+          <t>Use of privileged utility programs</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3127,12 +3047,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>No mention or evidence of physical controls related to A.7.10 in the document.</t>
+          <t>No reference to controls or policies governing the use of privileged utility programs is found in the document.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Include specific physical control measures and policies addressing A.7.10 requirements.</t>
+          <t>Develop and implement policies and controls to restrict and monitor the use of privileged utility programs to prevent unauthorized system changes or data access.</t>
         </is>
       </c>
     </row>
@@ -3142,17 +3062,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A.7.11</t>
+          <t>A.8.19</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.11</t>
+          <t>Installation of software on operational systems</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3162,12 +3082,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>No mention or evidence of physical controls related to A.7.11 in the document.</t>
+          <t>The document does not address controls or procedures for the installation of software on operational systems.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Add documented physical control procedures and responsibilities for A.7.11.</t>
+          <t>Define and enforce procedures for software installation on operational systems, including authorization, testing, and documentation requirements.</t>
         </is>
       </c>
     </row>
@@ -3177,17 +3097,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A.7.12</t>
+          <t>A.8.20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.12</t>
+          <t>Network security</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3197,12 +3117,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>No reference to physical security controls or measures related to A.7.12.</t>
+          <t>No explicit mention of network security controls, such as firewalls, intrusion detection, or network segmentation, is present.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Develop and document physical security controls as required by A.7.12.</t>
+          <t>Implement and document network security measures to protect the organization's information systems and data from unauthorized access and threats.</t>
         </is>
       </c>
     </row>
@@ -3212,17 +3132,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A.7.13</t>
+          <t>A.8.21</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.13</t>
+          <t>Security of network services</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3232,12 +3152,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>No information on physical access control or related measures for A.7.13.</t>
+          <t>The document lacks information on securing network services, including service configuration, monitoring, and access control.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Implement and document physical access control measures per A.7.13.</t>
+          <t>Establish controls to secure network services, ensuring they are configured securely, monitored, and access is restricted to authorized users.</t>
         </is>
       </c>
     </row>
@@ -3247,17 +3167,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A.7.14</t>
+          <t>A.8.22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.7.14</t>
+          <t>Segregation of networks</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3267,12 +3187,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>No evidence of physical security monitoring or review controls for A.7.14.</t>
+          <t>No details on network segregation or segmentation to separate critical systems or data are provided.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Establish monitoring, review, and maintenance procedures for physical controls as per A.7.14.</t>
+          <t>Implement network segregation to isolate critical systems and sensitive data, reducing the risk of unauthorized access or spread of incidents.</t>
         </is>
       </c>
     </row>
@@ -3287,27 +3207,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A.8.1</t>
+          <t>A.8.23</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.1</t>
+          <t>Web filtering</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>General IT and communications equipment recovery plans exist, but specific technological control details for A.8.1 are not explicitly documented.</t>
+          <t>There is no mention of web filtering controls to restrict or monitor web access.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Enhance documentation to explicitly address technological controls required by A.8.1.</t>
+          <t>Introduce web filtering mechanisms to control and monitor internet usage, preventing access to malicious or inappropriate websites.</t>
         </is>
       </c>
     </row>
@@ -3322,27 +3242,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A.8.2</t>
+          <t>A.8.24</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.2</t>
+          <t>Use of cryptography</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Incident Response Plan includes some technological incident handling but lacks full detail on control A.8.2 scope.</t>
+          <t>The document does not reference the use of cryptographic controls for protecting information confidentiality, integrity, or authenticity.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Expand incident response documentation to fully cover A.8.2 technological controls.</t>
+          <t>Define and implement cryptographic controls aligned with organizational requirements and legal/regulatory obligations.</t>
         </is>
       </c>
     </row>
@@ -3357,27 +3277,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A.8.3</t>
+          <t>A.8.25</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.3</t>
+          <t>Secure development life cycle</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Disaster Recovery Plans exist for IT infrastructure; however, explicit control measures for A.8.3 are not clearly described.</t>
+          <t>No information is provided regarding secure development lifecycle practices.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Detail technological controls and recovery procedures to align with A.8.3 requirements.</t>
+          <t>Establish and document secure development lifecycle processes to integrate security at each phase of software development.</t>
         </is>
       </c>
     </row>
@@ -3392,27 +3312,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A.8.4</t>
+          <t>A.8.26</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.4</t>
+          <t>Application security requirements</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Some recovery and incident response processes are defined but lack explicit reference to A.8.4 technological controls.</t>
+          <t>The document does not specify application security requirements or controls.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Document and implement controls explicitly addressing A.8.4.</t>
+          <t>Define and enforce application security requirements to ensure applications are designed and maintained securely.</t>
         </is>
       </c>
     </row>
@@ -3427,12 +3347,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A.8.5</t>
+          <t>A.8.27</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.5</t>
+          <t>Secure systems architecture and engineering principles</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3442,12 +3362,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>No explicit mention of control measures related to A.8.5 in the document.</t>
+          <t>No mention of secure architecture or engineering principles for systems.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Add policies and procedures to address technological controls required by A.8.5.</t>
+          <t>Adopt and document secure architecture and engineering principles to guide system design and implementation.</t>
         </is>
       </c>
     </row>
@@ -3462,12 +3382,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A.8.6</t>
+          <t>A.8.28</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.6</t>
+          <t>Secure coding</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3477,12 +3397,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>No evidence of controls or processes addressing A.8.6.</t>
+          <t>There is no reference to secure coding practices or guidelines.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Develop and document technological controls for A.8.6.</t>
+          <t>Implement secure coding standards and training to reduce vulnerabilities in software development.</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3417,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A.8.7</t>
+          <t>A.8.29</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.7</t>
+          <t>Security testing in development and acceptance</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3512,12 +3432,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>No reference to control A.8.7 in the document.</t>
+          <t>The document does not address security testing during development or acceptance phases.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Include relevant technological controls and procedures for A.8.7.</t>
+          <t>Integrate security testing into development and acceptance processes to identify and remediate vulnerabilities early.</t>
         </is>
       </c>
     </row>
@@ -3532,12 +3452,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A.8.8</t>
+          <t>A.8.30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.8</t>
+          <t>Outsourced development</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3547,12 +3467,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Control A.8.8 is not addressed or mentioned.</t>
+          <t>No controls or policies related to outsourced development are mentioned.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Add documentation and controls to comply with A.8.8.</t>
+          <t>Establish controls to manage security risks associated with outsourced development, including contracts and monitoring.</t>
         </is>
       </c>
     </row>
@@ -3567,12 +3487,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A.8.9</t>
+          <t>A.8.31</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.9</t>
+          <t>Separation of development, test and production environments</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3582,12 +3502,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>No evidence of A.8.9 controls.</t>
+          <t>The document does not mention separation of development, test, and production environments.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Implement and document controls for A.8.9.</t>
+          <t>Implement and document segregation of development, test, and production environments to prevent unauthorized access and changes.</t>
         </is>
       </c>
     </row>
@@ -3602,27 +3522,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A.8.10</t>
+          <t>A.8.32</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.10</t>
+          <t>Change management</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>No mention of A.8.10 technological controls.</t>
+          <t>The document references decision-making and authorizations related to recovery plans and purchasing during incidents but lacks explicit mention of formal change management processes for IT systems.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Add relevant controls and procedures for A.8.10.</t>
+          <t>Develop and formalize a comprehensive change management process covering all IT system changes, including documentation, approval, testing, and communication.</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3557,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A.8.11</t>
+          <t>A.8.33</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.11</t>
+          <t>Test information</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3652,12 +3572,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Control A.8.11 is not addressed.</t>
+          <t>No information on management or protection of test information is provided.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Document and implement controls for A.8.11.</t>
+          <t>Establish controls to protect test information, ensuring it is handled securely and does not compromise production data or systems.</t>
         </is>
       </c>
     </row>
@@ -3672,12 +3592,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A.8.12</t>
+          <t>A.8.34</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Control title placeholder for A.8.12</t>
+          <t>Protection of information systems during audit testing</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3687,782 +3607,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>No evidence of A.8.12 controls.</t>
+          <t>The document does not address protection of information systems during audit testing.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Add controls and procedures to comply with A.8.12.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A.8.13</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.13</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>No mention of A.8.13 technological controls.</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Include controls and documentation for A.8.13.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A.8.14</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.14</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>No evidence of controls related to A.8.14.</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Develop and document controls for A.8.14.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A.8.15</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.15</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Control A.8.15 is not addressed.</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Add relevant technological controls and procedures for A.8.15.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>A.8.16</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.16</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>No mention or evidence of A.8.16 controls.</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Implement and document controls for A.8.16.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A.8.17</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.17</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>No evidence of controls addressing A.8.17.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Add controls and procedures for A.8.17.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>A.8.18</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.18</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>No mention of A.8.18 controls.</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Include controls for A.8.18.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>A.8.19</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.19</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>No evidence of A.8.19 controls.</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Develop and document controls for A.8.19.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>A.8.20</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.20</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Control A.8.20 is not addressed.</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Add relevant technological controls for A.8.20.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>A.8.21</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.21</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>No mention of A.8.21 controls.</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Document and implement controls for A.8.21.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>A.8.22</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.22</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>No evidence of controls for A.8.22.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Add controls and procedures for A.8.22.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>A.8.23</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.23</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>No mention of A.8.23 controls.</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Include controls for A.8.23.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>A.8.24</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.24</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>No evidence of A.8.24 controls.</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Develop and document controls for A.8.24.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>A.8.25</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.25</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Control A.8.25 is not addressed.</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Add relevant technological controls for A.8.25.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>A.8.26</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.26</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>No mention of A.8.26 controls.</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Document and implement controls for A.8.26.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>A.8.27</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.27</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>No evidence of controls for A.8.27.</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Add controls and procedures for A.8.27.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>A.8.28</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.28</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>No mention of A.8.28 controls.</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Include controls for A.8.28.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>A.8.29</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.29</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>No evidence of A.8.29 controls.</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Develop and document controls for A.8.29.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>A.8.30</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.30</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Control A.8.30 is not addressed.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Add relevant technological controls for A.8.30.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>A.8.31</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.31</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>No mention of A.8.31 controls.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Document and implement controls for A.8.31.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>A.8.32</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.32</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>No evidence of controls for A.8.32.</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Add controls and procedures for A.8.32.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>A.8.33</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.33</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>No mention of A.8.33 controls.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Include controls for A.8.33.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>A.8.34</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Control title placeholder for A.8.34</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>No evidence of A.8.34 controls.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Develop and document controls for A.8.34.</t>
+          <t>Define and implement controls to protect information systems during audit testing to prevent disruption or unauthorized access.</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Clause</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Section</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Control Id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Control Title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Compliance</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gaps Identified</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action</t>
         </is>
@@ -471,32 +481,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A.5.1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Policies for information security</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>The document includes a Business Continuity Plan and references an IT Security Policy but does not explicitly present or reference a comprehensive information security policy covering all aspects required by ISO/IEC 27001:2022 A.5.1.</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Develop and formally document a comprehensive Information Security Policy that addresses all relevant aspects of information security and ensure it is approved and communicated to all relevant stakeholders.</t>
+          <t>The document includes a Business Continuity Plan and references an IT Security Policy but does not explicitly present a comprehensive information security policy covering all aspects required by ISO/IEC 27001.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lack of a clearly defined, organization-wide information security policy document within the provided text.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Develop and formally document a comprehensive information security policy aligned with ISO/IEC 27001 requirements and ensure it is communicated to all relevant stakeholders.</t>
         </is>
       </c>
     </row>
@@ -506,26 +526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A.5.2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Information security roles and responsibilities</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Section 2.3 Appointments and authorities (Pages 4-6) clearly defines roles such as Crisis Management Team, Crisis Management Support Team, Operational Director, Recovery Managers, and their responsibilities during disruptive incidents.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -533,32 +563,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A.5.3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Segregation of duties</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No evidence of segregation of duties controls or policies to reduce risk of unauthorized or unintentional modification or misuse of information or assets.</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Define and implement segregation of duties policies and procedures to ensure critical tasks are divided among different individuals to reduce risk.</t>
+          <t>The document defines roles and responsibilities but does not explicitly address segregation of duties to prevent conflicts of interest or fraud.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No explicit mention or evidence of segregation of duties controls.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Implement and document segregation of duties policies to ensure critical tasks are divided among different individuals to reduce risk.</t>
         </is>
       </c>
     </row>
@@ -568,86 +608,108 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>5,6,9,10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A.5.4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Management responsibilities</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Management responsibilities are detailed in Sections 2.3, 3.2, and 3.3, including decision-making authority, resource allocation, communication, and review processes.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A.5.5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Contact with authorities</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Appendix 1 Incident Response Plan (Page 11) includes contacts with local authorities (police, fire department, call 112) for facility disasters and incidents.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A.5.6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Contact with special interest groups</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No mention of contact or engagement with special interest groups or professional bodies related to information security.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Establish and document procedures for maintaining contact with relevant special interest groups and professional bodies to stay informed on security trends and threats.</t>
+          <t>No mention of contact with special interest groups or participation in information security forums or groups.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lack of documented contact or engagement with special interest groups related to information security.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Establish and document procedures for maintaining contact with relevant special interest groups to stay informed on security trends and threats.</t>
         </is>
       </c>
     </row>
@@ -657,32 +719,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>A.5.7</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Threat intelligence</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No evidence of processes or mechanisms for gathering, analyzing, and using threat intelligence.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Implement a threat intelligence process to collect and analyze relevant threat information to support risk management and incident response.</t>
+          <t>No evidence of processes or procedures for gathering, analyzing, or using threat intelligence.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Absence of documented threat intelligence activities.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Implement a threat intelligence process to collect and analyze relevant security threat information and integrate it into risk management.</t>
         </is>
       </c>
     </row>
@@ -692,32 +764,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>A.5.8</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Information security in project management</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No reference to integrating information security requirements into project management processes.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Incorporate information security requirements and controls into project management methodologies and document this integration.</t>
+          <t>No reference to integrating information security requirements into project management activities.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lack of documented controls or processes addressing information security in project management.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Incorporate information security requirements and controls into project management methodologies and document accordingly.</t>
         </is>
       </c>
     </row>
@@ -725,34 +807,40 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>A.5.9</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Inventory of information and other associated assets</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>The document references lists of business continuity sites and recovery plans but does not explicitly provide or reference a comprehensive inventory of information and associated assets.</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Develop and maintain a detailed inventory of information assets and associated assets, including ownership and classification.</t>
+          <t>Section 3.1 mentions evaluation of damaged assets including name, location, type, and cost, but no comprehensive inventory of all information assets is presented.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No formal, comprehensive inventory of information and associated assets documented.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Develop and maintain a formal inventory of all information assets and associated assets as part of the ISMS.</t>
         </is>
       </c>
     </row>
@@ -762,32 +850,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>A.5.10</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Acceptable use of information and other associated assets</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No policies or rules regarding acceptable use of information and assets are documented.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Establish and communicate an Acceptable Use Policy covering information and associated assets.</t>
+          <t>No policies or rules regarding acceptable use of information or assets are included in the document.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Absence of acceptable use policies for information and assets.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Develop and communicate acceptable use policies covering information and associated assets.</t>
         </is>
       </c>
     </row>
@@ -795,34 +893,40 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>A.5.11</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Return of assets</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No procedures or policies addressing the return of assets upon termination or change of employment or contract.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Define and implement procedures to ensure return of organizational assets when no longer required or upon termination.</t>
+          <t>No mention of procedures for return of assets upon termination or role change.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lack of documented procedures for return of assets.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Establish and document procedures to ensure return of organizational assets when no longer required or upon termination.</t>
         </is>
       </c>
     </row>
@@ -832,32 +936,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>A.5.12</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Classification of information</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No evidence of information classification scheme or policies.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Develop and implement an information classification policy and scheme to categorize information based on sensitivity and impact.</t>
+          <t>No evidence of information classification scheme or process.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No documented information classification policy or scheme.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Develop and implement an information classification scheme and associated policies.</t>
         </is>
       </c>
     </row>
@@ -865,32 +979,38 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>A.5.13</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Labelling of information</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>No mention of labelling requirements or procedures for classified information.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No documented labelling procedures for information.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Establish labelling procedures aligned with the information classification scheme.</t>
         </is>
@@ -902,32 +1022,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>A.5.14</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Information transfer</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No documented controls or procedures for secure information transfer.</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Implement and document secure information transfer policies and procedures.</t>
+          <t>Communication methods and responsibilities are described (Section 2.5), but no explicit controls or policies for secure information transfer are documented.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lack of documented secure information transfer policies and controls.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Develop and implement policies and procedures to ensure secure transfer of information internally and externally.</t>
         </is>
       </c>
     </row>
@@ -935,34 +1065,40 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>A.5.15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Access control</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No explicit access control policies or procedures described.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Develop and enforce access control policies and procedures to restrict access to information and assets.</t>
+          <t>No specific access control policies or procedures are described in the document.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Absence of documented access control measures.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Establish and document access control policies and procedures aligned with ISO/IEC 27001.</t>
         </is>
       </c>
     </row>
@@ -970,34 +1106,40 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>A.5.16</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Identity management</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>No mention of identity management processes or controls.</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Implement identity management processes to ensure proper identification and management of users.</t>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lack of documented identity management controls.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Implement and document identity management processes to ensure proper identification and authentication of users.</t>
         </is>
       </c>
     </row>
@@ -1005,34 +1147,40 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>A.5.17</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Authentication information</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No documented controls or policies for managing authentication information.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Establish policies and procedures for secure management of authentication information.</t>
+          <t>No details on management of authentication information such as passwords or tokens.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No documented controls for authentication information management.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Develop policies and procedures for secure management of authentication information.</t>
         </is>
       </c>
     </row>
@@ -1040,34 +1188,40 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>A.5.18</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Access rights</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No evidence of formal processes for granting, reviewing, and revoking access rights.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Define and implement access rights management processes including periodic review.</t>
+          <t>No documented process for granting, reviewing, or revoking access rights.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Absence of access rights management procedures.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Establish and maintain formal procedures for access rights management.</t>
         </is>
       </c>
     </row>
@@ -1077,30 +1231,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>A.5.19</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Information security in supplier relationships</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>The document references contacts with vendors and suppliers but lacks documented information security requirements or controls in supplier relationships.</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>Supplier contacts and responsibilities are listed (Appendix 5), but no formal information security requirements or controls for supplier relationships are documented.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lack of documented information security controls in supplier relationships.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Develop and implement information security requirements and controls for managing supplier relationships.</t>
         </is>
@@ -1112,32 +1276,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>A.5.20</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Addressing information security within supplier agreements</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Supplier agreements are referenced indirectly via vendor contacts and incident response contacts, but there is no explicit mention of addressing information security requirements within supplier agreements.</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Include explicit clauses or policies that define information security requirements to be included in supplier agreements and ensure these are documented and managed.</t>
+          <t>Section 2.8 mentions dependencies and interactions with suppliers and external parties detailed in Incident Response Plan, Disaster Recovery Plan, and recovery plans, but no explicit mention of addressing information security requirements within supplier agreements.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lack of explicit clauses or controls addressing information security requirements within supplier agreements.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Include explicit requirements and clauses in supplier agreements to address information security obligations and responsibilities.</t>
         </is>
       </c>
     </row>
@@ -1147,32 +1321,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>A.5.21</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Managing information security in the ICT supply chain</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>🟡</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The document references suppliers and external parties in recovery plans and incident response, but lacks a formal process or controls specifically for managing information security risks in the ICT supply chain.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Develop and document processes to assess and manage information security risks related to ICT suppliers and the supply chain.</t>
+          <t>No explicit mention or description of managing information security risks in the ICT supply chain found in the document.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No documented processes or controls for managing information security risks in the ICT supply chain.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Develop and document controls and processes to manage information security risks in the ICT supply chain.</t>
         </is>
       </c>
     </row>
@@ -1182,32 +1366,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>A.5.22</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Monitoring, review and change management of supplier services</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No mention of monitoring, reviewing, or managing changes in supplier services is found in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Establish and document procedures for ongoing monitoring, review, and change management of supplier services to ensure continued compliance with information security requirements.</t>
+          <t>No references found regarding monitoring, review, or change management of supplier services.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Absence of documented procedures for monitoring and reviewing supplier services or managing changes.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Establish and document procedures for ongoing monitoring, review, and change management of supplier services.</t>
         </is>
       </c>
     </row>
@@ -1217,32 +1411,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>A.5.23</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Information security for use of cloud services</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Cloud services are mentioned (e.g., CRM Cloud system, cloud-based telephony, Google Drive storage), but there is no explicit information security control or policy addressing cloud service usage.</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Define and document information security requirements and controls specific to the use of cloud services, including risk assessments and supplier security obligations.</t>
+          <t>Cloud services such as CRM Cloud system and cloud-based telephony (3CX) are mentioned with recovery times and responsible persons, but no explicit information security controls or policies for cloud services are detailed.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lack of explicit information security controls or policies specific to cloud service usage.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Define and document information security requirements and controls specific to cloud services usage.</t>
         </is>
       </c>
     </row>
@@ -1252,26 +1456,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>A.5.24</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Information security incident management planning and preparation</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Appendix 1 Incident Response Plan, Section 2.4 Plan activation/deactivation, and detailed incident response procedures demonstrate planning and preparation for information security incidents.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1279,26 +1493,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>A.5.25</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Assessment and decision on information security events</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Section 3.2 describes assessment of the situation and decision-making by the Operational Director regarding incident response and recovery actions.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1306,26 +1530,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>A.5.26</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Response to information security incidents</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Appendix 1 Incident Response Plan and Section 2.4 describe activation and response procedures for incidents.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1333,32 +1567,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>8,10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>A.5.27</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Learning from information security incidents</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>The document includes incident logging and response but does not explicitly describe processes for learning from incidents or implementing improvements based on lessons learned.</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Implement and document a formal process for post-incident review and continuous improvement based on lessons learned from information security incidents.</t>
+          <t>Section 4 mentions evaluation criteria including whether recovery plans and incident response plans are synchronized and if exercising/testing achieved objectives, implying some review, but no explicit process for learning from incidents.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No explicit documented process for post-incident review and learning.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Implement and document a formal process for post-incident review and incorporation of lessons learned.</t>
         </is>
       </c>
     </row>
@@ -1368,32 +1612,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>A.5.28</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Collection of evidence</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>🟡</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Preservation of damaged assets is mentioned, but there is no detailed procedure for collection, handling, and preservation of digital or physical evidence related to information security incidents.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Develop and document procedures for evidence collection, handling, and preservation to support investigations and potential legal actions.</t>
+          <t>No mention of procedures or controls for collection, preservation, or handling of evidence related to information security incidents.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Absence of documented evidence collection procedures.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Develop and document procedures for proper collection and handling of evidence during information security incidents.</t>
         </is>
       </c>
     </row>
@@ -1401,55 +1655,67 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>A.5.29</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Information security during disruption</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>The entire Business Continuity Plan focuses on managing information security and business continuity during disruptions, including recovery plans and communication.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>A.5.30</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>ICT readiness for business continuity</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Section 2.9 Required resources and Disaster Recovery Plans demonstrate ICT readiness for business continuity.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1457,26 +1723,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>A.5.31</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Identification of legal, statutory, regulatory and contractual requirements</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Chapter 1 Reference documents includes 'List of Legal, Regulatory, Contractual and Other Requirements'.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1484,32 +1760,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>A.5.32</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Intellectual property rights</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>No reference to intellectual property rights protection or management is found in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Include policies and controls addressing the protection and management of intellectual property rights.</t>
+          <t>No mention of intellectual property rights protection or related controls.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No documented controls or policies addressing intellectual property rights.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Include policies and controls to protect intellectual property rights.</t>
         </is>
       </c>
     </row>
@@ -1519,32 +1805,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>A.5.33</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Protection of records</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>The document mentions storage locations for the Business Continuity Plan but lacks detailed controls for protection, retention, and integrity of records.</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Define and implement controls for protection, retention, and integrity of records relevant to information security and business continuity.</t>
+          <t>Chapter 4 Validity and document management describes storage of paper and electronic documents but lacks detailed controls on protection of records.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Insufficient detail on protection measures for records (e.g., access control, retention).</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Enhance documentation with specific controls for protection, retention, and access to records.</t>
         </is>
       </c>
     </row>
@@ -1554,32 +1850,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>A.5.34</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Privacy and protection of PII</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Data leakage (GDPR) is mentioned in incident response, but there is no comprehensive privacy policy or controls for protection of personally identifiable information (PII).</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Develop and document privacy policies and controls to protect PII in compliance with applicable regulations such as GDPR.</t>
+          <t>Incident Response Plan includes data leakage (GDPR) incident handling and contact with authorities, but no comprehensive privacy policy or controls detailed.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lack of comprehensive privacy and PII protection policies and controls.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Develop and document comprehensive privacy policies and controls for PII protection.</t>
         </is>
       </c>
     </row>
@@ -1589,32 +1895,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>A.5.35</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Independent review of information security</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No mention of independent or external reviews or audits of information security is found.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Establish and document a process for independent review or audit of the information security management system and related controls.</t>
+          <t>No mention of independent reviews or audits of information security.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No documented independent review or audit processes.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Establish and document independent review or audit processes for information security.</t>
         </is>
       </c>
     </row>
@@ -1624,32 +1940,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>5,9,10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>A.5.36</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Compliance with policies and standards for information security</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>The document references ISO standards and policies but does not explicitly describe how compliance with information security policies and standards is monitored or enforced.</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Implement and document processes to monitor and ensure compliance with information security policies and standards.</t>
+          <t>Document mentions evaluation criteria and responsibilities but lacks explicit compliance monitoring or enforcement mechanisms.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No explicit compliance monitoring or enforcement processes described.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Implement and document compliance monitoring and enforcement mechanisms.</t>
         </is>
       </c>
     </row>
@@ -1657,28 +1983,42 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>A.5.37</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Documented operating procedures</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>🟡</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Some documented plans and procedures exist (e.g., Incident Response Plan, Disaster Recovery Plan), but no comprehensive documented operating procedures for all relevant processes.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Incomplete documented operating procedures for all ISMS processes.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Develop and maintain comprehensive documented operating procedures.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1686,32 +2026,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>A.6.1</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Screening</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No information on personnel screening or background checks is provided in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Develop and implement personnel screening procedures as part of the human resource security controls.</t>
+          <t>No mention of personnel screening or background checks.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No documented personnel screening processes.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Implement and document personnel screening procedures.</t>
         </is>
       </c>
     </row>
@@ -1721,32 +2071,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>A.6.2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Terms and conditions of employment</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The document does not mention terms and conditions of employment or how information security requirements are integrated into employment contracts.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Include policies or procedures that define and communicate information security terms and conditions in employment contracts.</t>
+          <t>No mention of terms and conditions of employment in the document.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>The document does not address terms and conditions of employment related to information security.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Include policies or references to terms and conditions of employment that specify information security responsibilities and expectations.</t>
         </is>
       </c>
     </row>
@@ -1756,30 +2116,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>A.6.3</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Information security awareness, education and training</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No reference to information security awareness, education, or training programs for employees is found in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>No information security awareness, education or training programs mentioned.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Lack of documented information security awareness, education, and training for personnel.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Develop and document an information security awareness, education, and training program for all employees.</t>
         </is>
@@ -1791,32 +2161,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>A.6.4</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Disciplinary process</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>The document does not address disciplinary processes related to information security breaches or violations.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Establish and document a disciplinary process for information security violations.</t>
+          <t>No disciplinary process related to information security is described.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No disciplinary process for information security breaches or violations is documented.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Establish and document a disciplinary process for handling information security violations.</t>
         </is>
       </c>
     </row>
@@ -1826,32 +2206,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>A.6.5</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Responsibilities after termination or change of employment</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>No mention of responsibilities or controls related to employees after termination or change of employment.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Define and document responsibilities and controls for employees after termination or change of employment, including return of assets and revocation of access.</t>
+          <t>No mention of responsibilities after termination or change of employment.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No procedures or responsibilities defined for employees after termination or change of employment.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Define and document responsibilities and actions to be taken after termination or change of employment to protect information security.</t>
         </is>
       </c>
     </row>
@@ -1859,34 +2249,40 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
         <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>A.6.6</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Confidentiality or non-disclosure agreements</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>The document does not mention confidentiality or non-disclosure agreements for employees or contractors.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Implement and document confidentiality or non-disclosure agreements as part of employment or contractor onboarding.</t>
+          <t>No mention of confidentiality or non-disclosure agreements in the document.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No evidence of confidentiality or non-disclosure agreements for personnel.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Implement and document confidentiality or non-disclosure agreements for all relevant personnel.</t>
         </is>
       </c>
     </row>
@@ -1894,34 +2290,40 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
         <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>A.6.7</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Remote working</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>The document states that all employees except the Studio Department can work from home in the cloud, but lacks detailed security controls or policies for remote working.</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Develop and document comprehensive remote working policies including security requirements, access controls, and monitoring.</t>
+          <t>Section 2.6 and 2.9 mention employees working from home in the cloud and transportation plans.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Remote working is acknowledged but lacks detailed information security controls or policies specific to remote work.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Develop and document specific information security policies and controls for remote working.</t>
         </is>
       </c>
     </row>
@@ -1929,28 +2331,42 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>A.6 (People Controls)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>A.6.8</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Information security event reporting</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>🟡</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Appendix 1 Incident Response Plan and Appendix 2 Incident Log describe incident reporting procedures for IT and facilities incidents.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event reporting is addressed but could be more comprehensive and explicitly linked to all types of information security events.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Enhance and formalize the information security event reporting process to cover all relevant events and ensure timely reporting.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1958,32 +2374,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>A.7.1</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Physical security perimeter</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>No description of physical security perimeters or boundaries protecting facilities is provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Define and document physical security perimeters for all facilities.</t>
+          <t>No description of physical security perimeters or controls around facilities.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Physical security perimeter controls are not documented.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Define and document physical security perimeter controls to protect facilities.</t>
         </is>
       </c>
     </row>
@@ -1991,34 +2417,40 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>A.7.2</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Physical entry controls</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No information on physical entry controls such as access cards, locks, or visitor management.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Implement and document physical entry control measures.</t>
+          <t>No mention of physical entry controls or access restrictions.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No physical entry control measures are described.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Implement and document physical entry controls to restrict access to secure areas.</t>
         </is>
       </c>
     </row>
@@ -2026,32 +2458,38 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>A.7.3</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Securing offices, rooms and facilities</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No details on securing offices, rooms, or facilities against unauthorized access or environmental threats.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>No information on securing offices, rooms, or facilities.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No documented controls for securing physical locations.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Establish and document procedures for securing offices, rooms, and facilities.</t>
         </is>
@@ -2063,32 +2501,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>A.7.4</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Physical security monitoring</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No mention of physical security monitoring such as CCTV or alarm systems.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Implement physical security monitoring controls and document their use.</t>
+          <t>No mention of physical security monitoring such as CCTV or alarms.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Physical security monitoring controls are missing.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Implement physical security monitoring measures and document them.</t>
         </is>
       </c>
     </row>
@@ -2096,34 +2544,40 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>A.7.5</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Protecting against physical and environmental threats</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No controls or procedures addressing protection against physical and environmental threats are described.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Develop and document measures to protect facilities and assets from physical and environmental threats.</t>
+          <t>No controls addressing physical or environmental threats are described.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No documented protection against physical and environmental threats.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Develop and document controls to protect against physical and environmental threats.</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2585,40 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>A.7.6</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Working in secure areas</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>No information on controls for working in secure areas or restricted zones.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Define and implement controls for working in secure areas.</t>
+          <t>No mention of controls for working in secure areas.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No procedures or controls for working in secure areas.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Define and document controls for working in secure areas.</t>
         </is>
       </c>
     </row>
@@ -2166,34 +2626,40 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>A.7.7</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Clear desk and clear screen</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No mention of clear desk and clear screen policies to protect sensitive information.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Establish and communicate clear desk and clear screen policies.</t>
+          <t>No mention of clear desk or clear screen policies.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No clear desk and clear screen policies documented.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Implement and communicate clear desk and clear screen policies.</t>
         </is>
       </c>
     </row>
@@ -2201,34 +2667,40 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>A.7.8</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Equipment siting and protection</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>No details on equipment siting and protection to reduce risks of theft or damage.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Document procedures for equipment siting and protection.</t>
+          <t>No information on equipment siting and protection.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No documented controls for equipment siting and protection.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Establish and document controls for equipment siting and protection.</t>
         </is>
       </c>
     </row>
@@ -2236,34 +2708,40 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>A.7.9</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Security of assets off-premises</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>No controls or guidance on security of assets taken off-premises.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Implement policies and controls for securing assets off-premises.</t>
+          <t>No mention of security controls for assets off-premises.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No controls for security of assets off-premises.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Define and document security controls for assets used or stored off-premises.</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2749,40 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>A.7.10</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Storage media</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>No mention of controls for secure handling, storage, and disposal of storage media.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Define and document controls for storage media management.</t>
+          <t>No mention of controls for storage media.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No documented controls for handling and protecting storage media.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Implement and document controls for storage media protection and handling.</t>
         </is>
       </c>
     </row>
@@ -2306,34 +2790,40 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>A.7.11</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Supporting utilities</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>The document lists utilities such as electricity and internet access with responsible persons, but lacks detailed controls to ensure their security and availability.</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Develop and document controls to secure supporting utilities and ensure their availability.</t>
+          <t>Section 2.9 lists electricity and internet access as external services with responsible persons.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Supporting utilities are identified but no detailed controls or risk management described.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Develop detailed controls and contingency plans for supporting utilities.</t>
         </is>
       </c>
     </row>
@@ -2341,34 +2831,40 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>A.7.12</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Cabling security</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No information on cabling security to prevent interception or damage.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Implement and document cabling security measures.</t>
+          <t>No mention of cabling security controls.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No controls for securing cabling infrastructure.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Establish and document cabling security controls.</t>
         </is>
       </c>
     </row>
@@ -2376,34 +2872,40 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>A.7.13</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Equipment maintenance</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>The document mentions repair and purchasing of equipment in the restoration phase but does not detail a formal equipment maintenance process or schedule.</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Establish and document a formal equipment maintenance policy and procedures to ensure equipment is regularly maintained to prevent failures.</t>
+          <t>Section 3.2 mentions decisions about purchasing new equipment or repairing existing equipment after incidents.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No detailed procedures or schedules for regular equipment maintenance are described.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Establish and document formal equipment maintenance procedures and schedules to ensure ongoing maintenance and reliability.</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2913,40 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>A.7.14</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Secure disposal or re‑use of equipment</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>No mention of secure disposal or re-use of equipment is found in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Develop and include procedures for secure disposal or re-use of equipment to prevent unauthorized access to information.</t>
+          <t>No mention of secure disposal or reuse of equipment in the document.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Lack of policies or procedures for secure disposal or reuse of equipment to prevent data leakage or unauthorized access.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Develop and implement procedures for secure disposal and reuse of equipment, including data sanitization and environmental considerations.</t>
         </is>
       </c>
     </row>
@@ -2448,32 +2956,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>A.8.1</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>User endpoint devices</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>The document references workstations and laptops in recovery plans but lacks specific controls or policies for managing user endpoint devices.</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Implement and document controls for managing user endpoint devices including configuration, security, and usage policies.</t>
+          <t>Section 2.9 lists IT and communications equipment required for recovery, including workstations and mobile phones, but no detailed controls on endpoint security.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No explicit mention of endpoint device security controls such as configuration, protection, or management.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Include detailed endpoint device management policies covering configuration, security controls, and monitoring.</t>
         </is>
       </c>
     </row>
@@ -2481,34 +2999,40 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>A.8.2</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Privileged access rights</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>No information on management or control of privileged access rights is provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Establish and document procedures for granting, reviewing, and revoking privileged access rights.</t>
+          <t>No information on management or control of privileged access rights.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Absence of documented controls for managing privileged access rights to systems and information.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Implement and document procedures for granting, reviewing, and revoking privileged access rights.</t>
         </is>
       </c>
     </row>
@@ -2518,32 +3042,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>A.8.3</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Information access restriction</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>The document does not address restrictions on information access.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Define and implement access control policies to restrict information access based on roles and responsibilities.</t>
+          <t>No explicit mention of access restriction controls or mechanisms in the document.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Lack of documented policies or technical controls restricting access to information based on business and security requirements.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Define and implement access control policies and mechanisms to restrict information access appropriately.</t>
         </is>
       </c>
     </row>
@@ -2551,34 +3085,40 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>A.8.4</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Access to source code</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>No mention of controls related to access to source code.</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Develop and document controls to restrict and monitor access to source code.</t>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No documented controls or procedures for managing and restricting access to source code.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Establish controls and procedures to manage and restrict access to source code repositories.</t>
         </is>
       </c>
     </row>
@@ -2586,34 +3126,40 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>A.8.5</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Secure authentication</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>No details on authentication mechanisms or policies are provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Implement and document secure authentication methods, including multi-factor authentication where appropriate.</t>
+          <t>No details on authentication mechanisms or policies.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No documented secure authentication controls such as multi-factor authentication or password policies.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Implement and document secure authentication mechanisms and policies.</t>
         </is>
       </c>
     </row>
@@ -2623,32 +3169,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>A.8.6</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Capacity management</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No information on capacity management is included.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Establish capacity management processes to ensure IT resources meet current and future business requirements.</t>
+          <t>No mention of capacity management processes or monitoring.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Lack of documented capacity management to ensure availability and performance of information systems.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Develop and implement capacity management processes and monitoring.</t>
         </is>
       </c>
     </row>
@@ -2658,32 +3214,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>A.8.7</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Protection against malware</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>🟡</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>The Incident Response Plan includes handling of malware incidents but lacks proactive malware protection controls.</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Implement and document proactive malware protection measures such as antivirus software, regular updates, and user awareness.</t>
+          <t>Appendix 1 Incident Response Plan includes response to computers affected with malware by contacting IT department.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No proactive malware protection controls or preventive measures described.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Implement and document malware protection controls including prevention, detection, and response.</t>
         </is>
       </c>
     </row>
@@ -2693,32 +3259,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>A.8.8</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Management of technical vulnerabilities</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>No mention of vulnerability management processes.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Develop and implement a vulnerability management program including regular scanning, assessment, and remediation.</t>
+          <t>No mention of vulnerability management processes or patch management.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Absence of documented vulnerability identification, assessment, and remediation processes.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Establish and document vulnerability management and patching procedures.</t>
         </is>
       </c>
     </row>
@@ -2728,32 +3304,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>A.8.9</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Configuration management</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>No details on configuration management are provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Establish configuration management procedures to ensure secure and consistent configuration of IT assets.</t>
+          <t>No information on configuration management of IT systems or devices.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No documented configuration management processes to ensure secure and consistent configurations.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Implement configuration management policies and procedures.</t>
         </is>
       </c>
     </row>
@@ -2763,32 +3349,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>A.8.10</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Information deletion</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No information on secure information deletion is found.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Implement policies and procedures for secure deletion of information when no longer required.</t>
+          <t>No mention of secure information deletion or data sanitization.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Lack of procedures for secure deletion of information when no longer required.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Develop and implement secure information deletion policies and procedures.</t>
         </is>
       </c>
     </row>
@@ -2796,34 +3392,40 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>A.8.11</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Data masking</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>No mention of data masking techniques or policies.</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Consider implementing data masking controls to protect sensitive information in non-production environments.</t>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No controls for masking sensitive data to protect confidentiality.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Implement data masking controls where appropriate.</t>
         </is>
       </c>
     </row>
@@ -2831,34 +3433,40 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>A.8.12</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Data leakage prevention</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>🟡</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Data leakage incidents are addressed reactively in the Incident Response Plan but no preventive controls are described.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Implement preventive data leakage controls such as DLP tools, policies, and user training.</t>
+          <t>No mention of data leakage prevention controls or technologies.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No documented controls to prevent unauthorized data exfiltration.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Establish data leakage prevention policies and technical controls.</t>
         </is>
       </c>
     </row>
@@ -2868,26 +3476,44 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>A.8.13</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Information backup</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>🟡</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Disaster Recovery Plan and recovery plans include recovery of IT infrastructure and services; backups implied but not detailed.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No explicit backup policies, schedules, or testing procedures described.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Document and implement formal backup policies, schedules, and testing.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2895,26 +3521,44 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>A.8.14</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Redundancy of information processing facilities</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>🟡</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Section 2.7 and 2.9 mention alternative sites and recovery time objectives implying redundancy.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No detailed description of redundancy mechanisms or failover procedures.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Document redundancy strategies and failover procedures for critical systems.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2922,32 +3566,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>A.8.15</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Logging</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>No mention of logging or log management.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Establish logging and log management policies and procedures to record and review relevant events.</t>
+          <t>No mention of logging policies, log management, or review processes.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Absence of logging and monitoring controls to detect and investigate security events.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Implement logging policies and procedures including log review and retention.</t>
         </is>
       </c>
     </row>
@@ -2957,32 +3611,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>A.8.16</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Monitoring activities</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>No information on monitoring activities is provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Implement monitoring controls to detect and respond to security events and anomalies.</t>
+          <t>No mention of monitoring activities or security event detection.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No documented monitoring controls to detect security incidents or performance issues.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Establish monitoring processes and tools for security and operational activities.</t>
         </is>
       </c>
     </row>
@@ -2992,32 +3656,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>A.8.17</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Clock synchronisation</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>The document does not mention any policy or procedure related to clock synchronization of information systems.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Establish and document procedures to ensure accurate and consistent clock synchronization across all relevant systems to support event logging and security monitoring.</t>
+          <t>No mention of clock synchronisation or time source management in the document.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Lack of documented procedures or controls for clock synchronisation across systems.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Establish and document procedures to ensure all information systems use synchronized clocks from a reliable time source.</t>
         </is>
       </c>
     </row>
@@ -3025,34 +3699,40 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>A.8.18</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Use of privileged utility programs</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>No reference to controls or policies governing the use of privileged utility programs is found in the document.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Develop and implement policies and controls to restrict and monitor the use of privileged utility programs to prevent unauthorized system changes or data access.</t>
+          <t>No reference to controls or management of privileged utility programs in the document.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No documented controls or restrictions on the use of privileged utility programs.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Implement and document controls governing the use of privileged utility programs to prevent unauthorized or accidental misuse.</t>
         </is>
       </c>
     </row>
@@ -3060,34 +3740,40 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>A.8.19</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Installation of software on operational systems</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>The document does not address controls or procedures for the installation of software on operational systems.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Define and enforce procedures for software installation on operational systems, including authorization, testing, and documentation requirements.</t>
+          <t>No mention of software installation controls or approval processes in the document.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Absence of documented procedures for controlled installation of software on operational systems.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Develop and implement formal procedures for software installation, including approval, testing, and documentation.</t>
         </is>
       </c>
     </row>
@@ -3097,32 +3783,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>A.8.20</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Network security</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>No explicit mention of network security controls, such as firewalls, intrusion detection, or network segmentation, is present.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Implement and document network security measures to protect the organization's information systems and data from unauthorized access and threats.</t>
+          <t>No explicit mention of network security controls or measures in the document.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Lack of documented network security policies, controls, or architecture.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Establish and document network security controls including perimeter defenses, monitoring, and access restrictions.</t>
         </is>
       </c>
     </row>
@@ -3130,34 +3826,40 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>A.8.21</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Security of network services</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>The document lacks information on securing network services, including service configuration, monitoring, and access control.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Establish controls to secure network services, ensuring they are configured securely, monitored, and access is restricted to authorized users.</t>
+          <t>No reference to security measures for network services in the document.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No documented controls ensuring security of network services.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Define and implement security requirements and controls for network services.</t>
         </is>
       </c>
     </row>
@@ -3165,34 +3867,40 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>A.8.22</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Segregation of networks</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>No details on network segregation or segmentation to separate critical systems or data are provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Implement network segregation to isolate critical systems and sensitive data, reducing the risk of unauthorized access or spread of incidents.</t>
+          <t>No mention of network segregation or segmentation controls.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No evidence of network segregation to separate critical systems or environments.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Implement network segregation to isolate critical systems and reduce risk exposure.</t>
         </is>
       </c>
     </row>
@@ -3202,32 +3910,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>A.8.23</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Web filtering</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>There is no mention of web filtering controls to restrict or monitor web access.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Introduce web filtering mechanisms to control and monitor internet usage, preventing access to malicious or inappropriate websites.</t>
+          <t>No mention of web filtering or controls to restrict web access.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Absence of web filtering controls to prevent access to malicious or inappropriate websites.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Implement web filtering solutions and document policies to control web access.</t>
         </is>
       </c>
     </row>
@@ -3235,34 +3953,40 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>A.8.24</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Use of cryptography</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>The document does not reference the use of cryptographic controls for protecting information confidentiality, integrity, or authenticity.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Define and implement cryptographic controls aligned with organizational requirements and legal/regulatory obligations.</t>
+          <t>No reference to cryptographic controls or use of encryption in the document.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No documented cryptographic policies or controls for protecting information.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Develop and implement cryptographic policies and procedures aligned with business requirements.</t>
         </is>
       </c>
     </row>
@@ -3270,34 +3994,40 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>A.8.25</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Secure development life cycle</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>No information is provided regarding secure development lifecycle practices.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Establish and document secure development lifecycle processes to integrate security at each phase of software development.</t>
+          <t>No mention of secure development lifecycle processes or controls.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Lack of documented secure development lifecycle practices.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Establish and document secure development lifecycle processes including security requirements, design, implementation, and testing.</t>
         </is>
       </c>
     </row>
@@ -3307,32 +4037,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>A.8.26</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Application security requirements</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>The document does not specify application security requirements or controls.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Define and enforce application security requirements to ensure applications are designed and maintained securely.</t>
+          <t>No documented application security requirements or controls found.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Absence of defined security requirements for applications.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Define and document application security requirements as part of development and procurement processes.</t>
         </is>
       </c>
     </row>
@@ -3340,34 +4080,40 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>A.8.27</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Secure systems architecture and engineering principles</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>No mention of secure architecture or engineering principles for systems.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Adopt and document secure architecture and engineering principles to guide system design and implementation.</t>
+          <t>No mention of secure architecture or engineering principles in the document.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No evidence of secure design principles applied to systems architecture.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Develop and apply secure architecture and engineering principles for system design and implementation.</t>
         </is>
       </c>
     </row>
@@ -3377,32 +4123,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>A.8.28</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Secure coding</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>There is no reference to secure coding practices or guidelines.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Implement secure coding standards and training to reduce vulnerabilities in software development.</t>
+          <t>No reference to secure coding practices or guidelines.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No documented secure coding standards or training.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Implement secure coding standards and provide training to developers.</t>
         </is>
       </c>
     </row>
@@ -3412,32 +4168,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>A.8.29</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Security testing in development and acceptance</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>The document does not address security testing during development or acceptance phases.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Integrate security testing into development and acceptance processes to identify and remediate vulnerabilities early.</t>
+          <t>No mention of security testing during development or acceptance phases.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Lack of documented security testing procedures for development and acceptance.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Establish security testing requirements and integrate them into development and acceptance processes.</t>
         </is>
       </c>
     </row>
@@ -3445,34 +4211,40 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>A.8.30</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Outsourced development</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No controls or policies related to outsourced development are mentioned.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Establish controls to manage security risks associated with outsourced development, including contracts and monitoring.</t>
+          <t>No reference to controls or management of outsourced development.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No documented controls for managing outsourced development activities.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Define and implement controls for outsourced development including security requirements and monitoring.</t>
         </is>
       </c>
     </row>
@@ -3482,32 +4254,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>A.8.31</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Separation of development, test and production environments</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>The document does not mention separation of development, test, and production environments.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Implement and document segregation of development, test, and production environments to prevent unauthorized access and changes.</t>
+          <t>No mention of separation between development, test, and production environments.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No documented segregation of environments to prevent unauthorized access or changes.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Implement and document separation of development, test, and production environments.</t>
         </is>
       </c>
     </row>
@@ -3517,32 +4299,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>A.8.32</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>🟡</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>The document references decision-making and authorizations related to recovery plans and purchasing during incidents but lacks explicit mention of formal change management processes for IT systems.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Develop and formalize a comprehensive change management process covering all IT system changes, including documentation, approval, testing, and communication.</t>
+          <t>No documented change management process or controls found in the document.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Absence of formal change management procedures.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Establish and document a formal change management process including approval, testing, and communication.</t>
         </is>
       </c>
     </row>
@@ -3550,34 +4342,40 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>A.8.33</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Test information</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>No information on management or protection of test information is provided.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Establish controls to protect test information, ensuring it is handled securely and does not compromise production data or systems.</t>
+          <t>No mention of controls or handling of test information.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No documented procedures for protecting or managing test information.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Define and implement controls for the protection and management of test information.</t>
         </is>
       </c>
     </row>
@@ -3585,34 +4383,40 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>A.8.34</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Protection of information systems during audit testing</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>The document does not address protection of information systems during audit testing.</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Define and implement controls to protect information systems during audit testing to prevent disruption or unauthorized access.</t>
+          <t>No reference to protection of information systems during audit testing.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No documented controls to protect systems during audit testing activities.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Establish procedures to ensure information systems are protected during audit testing.</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Evidence Reference</t>
+          <t>Gaps Identified</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Implemented Evidence</t>
+          <t>Recommended Action</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Policy Implementation Evidence</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Exact Evidence Extract</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Evidence Recommendation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Gaps Identified</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,32 +521,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Information Security Policy document defines baseline control measures, scope, enforcement, roles and responsibilities, and management commitment to information security aligned with ISO 27001 standards.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>The Information Security Policy document defines baseline control measures, scope, roles, responsibilities, enforcement, and management commitment to information security aligned with ISO 27001 standards.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Sections: Confidentiality Statement, Chapter 1 General, Section 1.1 Scope of the policy, Section 1.4 Enforcements, Section 1.5 Roles and Responsibilities.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Provide updated or additional evidence such as recent policy documents or management statements confirming current policy enforcement.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No new evidence of updated or additional information security policies found in the provided text.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Submit current Information Security Policy documents or management communications to demonstrate ongoing policy enforcement.</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -554,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,52 +556,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A.5.2</t>
+          <t>A.5.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Information security roles and responsibilities</t>
+          <t>Acceptable use of information and other associated assets</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Roles and responsibilities are clearly defined for CEO, ISSC, Operational Director, ISWG, IT Asset Managers, Managers, Users, Crisis Management Team, Crisis Management Support Team, and Recovery Managers with assigned authorities and accountabilities.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Acceptable use policies are defined covering IT, email, internet, mobile devices, and personal use with disciplinary consequences for violations.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Personnel Security, Section 5.1 Information Technology Acceptable Usage Policy, 5.1.3 IT Policy, 5.1.5 Personal Use of Company Facilities.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Provide organizational charts, role descriptions, or documented assignments of information security responsibilities.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding defined roles and responsibilities.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Submit documentation or evidence showing current assignment and communication of information security roles.</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -617,42 +597,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A.5.3</t>
+          <t>A.5.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Segregation of duties</t>
+          <t>Return of assets</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Segregation of duties is mandated to reduce risk of misuse; management ensures segregation when assigning responsibilities; where segregation is difficult, compensating controls like monitoring and audit trails are applied.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Documented procedures require return of company assets (laptops, mobile phones) upon termination of employment.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 2.1.2 Equipment usage, Section 2.4 Termination of employment.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Provide documented procedures or audit reports demonstrating segregation of duties implementation.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding segregation of duties.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Submit evidence such as role assignments, process controls, or audit findings confirming segregation of duties.</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -660,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5,6,9,10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -670,42 +642,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A.5.4</t>
+          <t>A.5.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Management responsibilities</t>
+          <t>Classification of information</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Management is responsible for setting security objectives, aligning with business strategy, resource allocation, policy enforcement, training, review, and continuous improvement; documented procedures for incident management, change management, and review are in place.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Information classification schemes are defined and applied based on value, legal requirements, and handling caution.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information, Section 3.1 Classification of information.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Provide meeting minutes, management review records, or documented procedures showing management involvement.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding management responsibilities.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Submit evidence of management reviews, decisions, or documented responsibilities.</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -719,48 +683,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A.5.5</t>
+          <t>A.5.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Contact with authorities</t>
+          <t>Labelling of information</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Procedures and contacts for communication with local authorities and emergency services are defined in incident response plans and key contacts appendix.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Information is labelled and handled according to classification schemes with guidelines for labelling and handling.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 3.2 Labelling and handling of information.</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Provide incident response plans or contact lists showing communication with authorities.</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding contact with authorities.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Submit documented procedures or contact lists for authorities and emergency services.</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -768,52 +728,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A.5.6</t>
+          <t>A.5.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Contact with special interest groups</t>
+          <t>Information transfer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The Information Security Policy mentions receiving security news from external vendors, forums, newsletters, and magazines to stay updated.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Information transfer is controlled and protected; electronic messaging is secured and approved prior to external use.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication, Section 7.3 Electronic messaging; Section 3.1 Scope of policy; Business Continuity Plan E-WISE - Section 2.5 Communication.</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Establish and document formal contacts or memberships with relevant special interest groups or information sharing communities.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No evidence found in the text of formal contact or membership with special interest groups.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Develop and document formal relationships with special interest groups to enhance threat intelligence.</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -821,52 +769,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A.5.7</t>
+          <t>A.5.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Threat intelligence</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Organisation maintains subscriptions to vulnerability and virus outbreak notifications and circulates relevant information to responsible teams; regularly receives security news from external sources.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Access control policies and procedures are defined for user registration, access restriction, privileged access, and session management.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control, Sections 5.1 User registration and de-registration, 5.2 Information access restriction, 5.3 Management of privileged access rights.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Provide evidence of subscriptions, distribution lists, or reports on threat intelligence.</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding threat intelligence activities.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Submit documentation showing active threat intelligence gathering and dissemination.</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -874,12 +810,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A.5.8</t>
+          <t>A.5.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Information security in project management</t>
+          <t>Identity management</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -889,39 +825,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Information security requirements are integrated into project plans and system development lifecycle; security reviews and approvals are part of project governance; external service providers’ SDLC reviewed.</t>
+          <t>Formal user registration and de-registration processes exist; unique user IDs are assigned and managed.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>System development life cycle [Confidential].pptx.pdf - Pages 3-5: Testing in CI/CD pipeline, branch protection rules, pull-request strategy, and code review processes.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.8\4.4.1.6.1 System development life cycle [Confidential].pptx.pdf)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Documented system development life cycle includes unit, integration, performance, vulnerability, and acceptance testing; branch protection rules require approvals before merging; code reviews are mandatory; security policies under investigation for GitHub security.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Include formal documented security policy for code repositories and evidence of enforcement of branch protection and code review policies.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Security policy for GitHub security is under investigation; no evidence of completed formal security policy for code repositories.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Finalize and document GitHub security policies and demonstrate enforcement of branch protection and code review.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 5.1 User registration and de-registration; Section 7.4 User Access Management.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -935,52 +851,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A.5.9</t>
+          <t>A.5.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inventory of information and other associated assets</t>
+          <t>Authentication information</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain and periodically update inventory of hardware and software assets including location and assigned users; physical inventory checks performed annually.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Password policies enforce confidentiality, complexity, change management, and secure handling of authentication information.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 4 Management of Computers and Information Equipment, Section 4.1 Use of secret authentication information; Chapter 7 Access Control, Section 7.3 Password Policy.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Provide updated asset inventory records or audit reports.</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding asset inventory.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Submit current asset inventory documentation or audit results.</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -988,48 +892,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A.5.10</t>
+          <t>A.5.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Acceptable use of information and other associated assets</t>
+          <t>Access rights</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Acceptable use policies for IT, email, and internet are defined; users are responsible for security of their devices and credentials; disciplinary actions for misuse are stated.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Access rights are assigned based on business needs with formal authorization, periodic audits, and timely revocation upon termination.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control, Sections 5.2 Information access restriction, 5.3 Management of privileged access rights, 7.4 User Access Management.</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Provide updated acceptable use policies or training records.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding acceptable use policies.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Submit current acceptable use policies or evidence of user awareness and enforcement.</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1037,12 +937,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A.5.11</t>
+          <t>A.5.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Return of assets</t>
+          <t>Information security in supplier relationships</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1052,39 +952,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Documented procedures require return of company assets (laptops, mobile phones, peripherals) upon termination of employment; access rights revoked on last day.</t>
+          <t>Supplier relationships are managed with contracts, SLAs, credential verification, NDAs, access control, and periodic reviews.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Incident involving data leakage during employee offboarding and corrective actions including return of assets and access revocation.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Investigation of data leakage by departing employee included forensic evidence gathering on business laptop and Google account; lawsuit and settlement agreement ensured return and destruction of company information; corrective actions included updating policy on personal device use.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Include formal documented procedures for asset return and access revocation during termination.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No explicit documented procedure included in the evidence, only incident response and corrective actions.</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Document and communicate formal asset return and access revocation procedures.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Business partnership and Outsourcing, Sections 3.1 Business Partnership Security, 3.2 Non-Disclosure Agreements, 3.3 Business Partnership Contracts.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1092,7 +972,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1102,48 +982,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A.5.12</t>
+          <t>A.5.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Classification of information</t>
+          <t>Information security roles and responsibilities</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Information classification schemes are defined based on value, legal requirements, and handling caution; asset owners classify and manage information assets.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Roles and responsibilities are clearly defined for CEO, ISSC, Operational Director, ISWG, IT Asset Managers, Managers, Users, and Executive responsibilities with competencies and accountability.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; also Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.3 Appointments and authorities (Crisis Management Team, Support Team, Recovery Managers).</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Provide classification scheme documents or examples of classified information.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding information classification.</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Submit documentation of classification schemes and evidence of application.</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1151,42 +1027,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A.5.13</t>
+          <t>A.5.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Labelling of information</t>
+          <t>Addressing information security within supplier agreements</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Information must be labelled and handled according to classification scheme; guidelines for labelling and handling are provided.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Supplier agreements and contracts include clauses on information security requirements, risk assessment before contract signing, and ongoing contract management.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 3.3 Business Partnership Contracts: 'Before the contract is signed the Director/Manager or person designated should assess the risks... steps must be taken to incorporate the risk reducing controls...'; 'Contracts must address access control, incident handling, change management, audits, data protection, etc.'</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Provide labelling guidelines and examples of labelled information.</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding labelling of information.</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Submit labelling procedures and evidence of implementation.</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1194,7 +1062,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1204,48 +1072,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A.5.14</t>
+          <t>A.5.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Information transfer</t>
+          <t>Managing information security in the ICT supply chain</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Information transfer procedures are defined including secure electronic messaging, approval for external communication, and controls for data sharing; incident response includes communication plans.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>ICT supply chain risks are managed by verifying credentials of external service providers, maintaining a key supplier list, and ensuring compliance with security policies.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 3.1 Business Partnership Security: 'Credentials of potential External Service Providers must be verified before entering into a contract'; 'A list of Key IT-suppliers should be maintained and yearly checked'; 'All outsourcing must be formalised through contracts.'</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Provide documented procedures for secure information transfer and communication plans.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding information transfer controls.</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Submit procedures and evidence of secure information transfer implementation.</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1253,40 +1117,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A.5.15</t>
+          <t>A.5.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Monitoring, review and change management of supplier services</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Access control policies and procedures are established including user registration, de-registration, privileged access management, and access reviews; two-factor authentication is mandated where applicable.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance including SLA metrics, quality, timeliness, and compliance.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 3.3.2 Contract Management: 'A responsible and experienced person should be allocated for ongoing contract management'; 'Periodic reviews on performance using SLA metrics, quality, timeliness, communication, compliance.'</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Provide access control policy documents, user access logs, or review reports.</t>
+          <t>Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>No new evidence found in the text regarding access control implementation.</t>
+          <t>Vendor risk assessment dated 19-2-2025 for Jumpcloud includes SLA metrics, quality of deliverables, communication, compliance with regulatory requirements including GDPR, and security posture with ISO27001 and SOC2 certifications. The assessment documents subscription to status reports, MFA implementation, and no known vulnerabilities. Actions and KPIs are defined to monitor vendor performance.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Submit access control policies and evidence of enforcement.</t>
+          <t>Maintain periodic vendor risk assessments with direct vendor contacts if possible; include escalation procedures and evidence of follow-up on any identified risks.</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1162,11 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1302,48 +1174,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A.5.16</t>
+          <t>A.5.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Identity management</t>
+          <t>Information security for use of cloud services</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Formal user registration and de-registration processes are in place; unique user IDs assigned; timely removal of access upon termination; user identity verification before password resets.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Use of cloud services is controlled by approval processes, access restrictions, and security requirements including encryption and compliance with access control policies.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 7.5 Guideline for Usage of Public Cloud Services: 'Use of any Cloud based applications and/or services must be approved by IT-Manager and ISWG'; 'Access must be restricted per company policies'; Business Continuity Plan references cloud services (e.g., CRM Cloud system recovery).</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Provide identity management procedures and evidence of user lifecycle management.</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding identity management.</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Submit documented identity management processes and evidence of application.</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1351,48 +1219,44 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A.5.17</t>
+          <t>A.5.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Authentication information</t>
+          <t>Information security incident management planning and preparation</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Password policies enforce complexity, confidentiality, change requirements, and secure handling; two-factor authentication is required; password sharing is prohibited.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Incident management procedures are established, including detection, reporting, analysis, and response. Incident response plans and logs are maintained.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Chapter 9 Management of Information Security Incidents: 'Management procedures must include monitoring, detection, analysis, reporting'; 'Appendix - 6.5 Security incident management'; Business Continuity Plan Appendix 1 Incident Response Plan and Appendix 2 Incident Log.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Provide password policy documents and evidence of enforcement such as system settings or audit logs.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding authentication information controls.</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Submit password policies and evidence of enforcement.</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8,10</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1400,40 +1264,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A.5.18</t>
+          <t>A.5.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Access rights</t>
+          <t>Assessment and decision on information security events</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on business need and least privilege; privileges are reviewed periodically; access revoked promptly upon termination; privileged access is controlled and separated.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Procedures exist for assessing information security events and deciding if they qualify as incidents, with defined roles and responsibilities.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Chapter 9: 'Procedures for assessment and decision of information security events'; Business Continuity Plan Section 3.2 Assessment of the situation &amp; determining options and responsibilities; Incident Response Plan activation criteria.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Provide access rights assignment records, review reports, or privileged access management documentation.</t>
+          <t>Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>No new evidence found in the text regarding access rights management.</t>
+          <t>CAPA form documents an incident where an employee sent confidential customer data to an external email after contract termination. Investigation was conducted by system administrator, forensic evidence gathered, lawsuit filed, and settlement agreement signed. Preventive actions include staff awareness in townhall meetings and updating Information Security Policy regarding personal device usage.</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Submit evidence of access rights assignment and review.</t>
+          <t>Enhance controls on offboarding processes and personal device usage; ensure timely communication of policy updates and reinforce employee responsibilities.</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>8,10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1453,12 +1321,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A.5.19</t>
+          <t>A.5.26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Information security in supplier relationships</t>
+          <t>Response to information security incidents</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1468,39 +1336,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Contracts and SLAs with external service providers are required; credentials and references are verified; NDAs signed; access is authorized and limited; security policies communicated; supplier performance reviewed periodically.</t>
+          <t>Incident response includes containment, eradication, recovery, communication, and documentation with assigned roles.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Vendor risk assessment - Jumpcloud [Internal].docx.pdf - Pages 1-9: Vendor risk assessment including SLA metrics, quality of deliverables, communication, compliance, security posture, and goals &amp; KPIs.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Vendor risk assessment for Jumpcloud includes evaluation of SLA metrics (uptime, MTTR), quality, communication, compliance with GDPR, security posture with ISO27001 and SOC2 certifications, MFA implementation, and vendor goals/KPIs; assessment dated 19-2-2025 by IT management.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Include documented contracts, NDAs, and periodic review reports to complement risk assessments.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>No direct evidence of signed contracts or NDAs included in the document.</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Provide contracts and NDAs to strengthen evidence of supplier relationship controls.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Chapter 9 and Appendix 6.5 Security incident management; Business Continuity Plan Appendix 1 Incident Response Plan; Section 2.5 Communication; Section 3.3 Developing action plans.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1508,7 +1356,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8,10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1518,12 +1366,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A.5.20</t>
+          <t>A.5.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Addressing information security within supplier agreements</t>
+          <t>Learning from information security incidents</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1533,39 +1381,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Supplier agreements and contracts include clauses addressing information security requirements, risk assessments, and compliance obligations.</t>
+          <t>Incident reviews and lessons learned are conducted with reporting to ISSC and ISWG; CAPA forms and simulations are used.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Vendor risk assessment - Jumpcloud [Internal].docx.pdf - Section 4.0 Compliance with regulatory requirements and Section 5.0 Security posture.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Vendor risk assessment includes review of GDPR compliance documentation, ISO27001 and SOC2 certifications, and security posture including MFA and vulnerability assessments, indicating information security clauses are considered in agreements.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Provide actual supplier agreements or contract excerpts showing security clauses.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>No direct contract documents included.</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Submit supplier agreements with explicit information security clauses.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Section 6.5.5: 'Procedures to analyse and identify cause of incidents'; 'CAPA forms used'; 'Yearly simulation to learn and remedy crisis situations'; Section 10.1 Review of information security; Business Continuity Plan Chapter 4 Validity and document management: 'Effectiveness evaluated by recovery times, synchronization, testing.'</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1573,7 +1401,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1583,12 +1411,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A.5.21</t>
+          <t>A.5.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Managing information security in the ICT supply chain</t>
+          <t>Collection of evidence</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1598,49 +1426,25 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ICT supply chain risks are managed by verifying credentials of external service providers, maintaining a key supplier list, and ensuring compliance with security policies.</t>
+          <t>Evidence collection during incident analysis is documented and tracked in issue tracking tools to support investigation and reporting.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Vendor risk assessment - Jumpcloud [Internal].docx.pdf - Assessment performed by IT management; evaluation based on documentation and experience with platform.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Vendor risk assessment conducted by Head of IT Operations and Group System Administrator; assessment includes evaluation of vendor security certifications and compliance, indicating credential verification and supply chain risk management.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Provide documented supplier lists and credential verification records.</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>No explicit key supplier list or credential verification records included.</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Submit supplier lists and evidence of credential verification.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Section 6.5.5: 'Collection of evidence such as audit trails'; 'All evidence captured in issue tracking tool'; Business Continuity Plan Section 3.1 Preservation of damaged assets and evaluation of damage.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1648,12 +1452,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A.5.22</t>
+          <t>A.5.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monitoring, review and change management of supplier services</t>
+          <t>Information security during disruption</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1663,39 +1467,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance including SLA metrics and compliance.</t>
+          <t>Business Continuity Plan defines management of disruptive incidents to maintain information security and recovery within set deadlines.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Vendor risk assessment - Jumpcloud [Internal].docx.pdf - Sections 1.0 SLA metrics, 3.0 Communication and collaboration, and 6.0 Summary &amp; actions.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Vendor risk assessment includes SLA metrics such as system uptime, response time, escalation procedures, and overall satisfaction; communication and collaboration are reviewed; no issues reported; assessment dated and signed by IT management.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Include documented periodic review reports and change management records.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No explicit change management records or periodic review schedules included.</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Submit documented supplier performance reviews and change management evidence.</t>
-        </is>
-      </c>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Page 2: 'Plan to manage incidents in case of disaster or disruption'; Sections 2.7 Order of recovery; 2.9 Interdependencies; 3 Restoring and resuming business activities.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1703,7 +1487,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1713,52 +1497,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A.5.23</t>
+          <t>A.5.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Information security for use of cloud services</t>
+          <t>Segregation of duties</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Use of cloud services is controlled and approved by IT management; access is restricted and aligned with access control policies.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Segregation of duties is ensured in assigning responsibilities to reduce risk of misuse; where segregation is difficult, compensating controls like monitoring and audit trails are applied.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 6.4 Segregation of Duties; Section 1.5 Roles and Responsibilities (mention of segregation).</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Provide documented cloud service usage policies and approval records.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding cloud service controls.</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Submit cloud service policies and evidence of access control enforcement.</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1766,12 +1538,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A.5.24</t>
+          <t>A.5.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Information security incident management planning and preparation</t>
+          <t>ICT readiness for business continuity</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1781,39 +1553,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Incident management procedures are established, including detection, reporting, analysis, and response preparation.</t>
+          <t>Business Continuity Plan includes detailed recovery plans for IT infrastructure and services, resource allocation, and alternative site arrangements.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Incident investigation, corrective and preventive actions, policy update.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Incident involving data leakage was investigated with forensic evidence collection; corrective actions included legal measures, staff awareness reinforcement, and policy updates to clarify personal device use.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Include formal incident management procedures and training records.</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>No full incident management procedure document included.</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Submit documented incident management plans and evidence of staff training.</t>
-        </is>
-      </c>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Sections 2.1 Plan content; 2.6 Sites and transportation; 2.9 Required resources; Appendix 6 Disaster Recovery Plans.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,7 +1573,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8,10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1831,12 +1583,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A.5.25</t>
+          <t>A.5.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Assessment and decision on information security events</t>
+          <t>Identification of legal, statutory, regulatory and contractual requirements</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1846,39 +1598,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Procedures exist for assessing security events and deciding if they qualify as incidents, with defined roles for decision making.</t>
+          <t>Legal, regulatory, contractual requirements are identified and maintained in reference documents and compliance is monitored.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Incident assessment and decision to file lawsuit and corrective actions.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Operational Director initiated investigation and decision-making on incident severity; corrective actions and legal steps taken based on assessment.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Provide documented procedures defining roles and decision criteria for event assessment.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>No formal documented procedures included.</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Submit documented assessment and decision-making procedures.</t>
-        </is>
-      </c>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Page 4 Chapter 1 Reference documents: 'List of Legal, Regulatory, Contractual and Other Requirements'; Information Security Policy [Internal].docx, Section 5.1.1 Data Protection and GDPR compliance.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1886,7 +1618,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8,10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1896,12 +1628,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A.5.26</t>
+          <t>A.5.32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Response to information security incidents</t>
+          <t>Intellectual property rights</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1911,39 +1643,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Incident response plans are documented and include roles, communication, and recovery actions.</t>
+          <t>Procedures ensure compliance with intellectual property rights including copyrights and licensing agreements.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Incident response including forensic investigation, legal action, communication, and policy update.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Incident response included evidence gathering, legal proceedings, communication with involved parties, and policy updates to prevent recurrence.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Include formal incident response plan documents and communication logs.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>No full incident response plan document included.</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Submit documented incident response plans and evidence of communication.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Section 9.1 Intellectual Property Rights: 'Appropriate procedures to ensure compliance with legal restrictions on use of material'; Section 9.2 Software Licensing.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1951,7 +1663,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8,10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1961,12 +1673,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A.5.27</t>
+          <t>A.5.33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Learning from information security incidents</t>
+          <t>Protection of records</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1976,39 +1688,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Incident analysis and corrective actions are documented and reviewed by management committees to improve controls.</t>
+          <t>Records and information disposal are securely managed with shredding and overwriting in compliance with laws.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Root cause analysis, corrective and preventive actions, policy update, and staff awareness measures.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Root cause analysis identified labour conflict; corrective actions included forensic investigation and legal action; preventive actions included staff awareness and policy updates.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Provide minutes of management reviews or committee meetings discussing incident learnings.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No evidence of formal management review meetings included.</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Submit documented management reviews and corrective action tracking.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Section 9.3 Information Disposal: 'Information disposal must be done through secure means'; 'All copies of personnel information must be shredded or irretrievably overwritten'.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2016,7 +1708,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2026,12 +1718,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A.5.28</t>
+          <t>A.5.34</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Collection of evidence</t>
+          <t>Privacy and protection of PII</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2041,45 +1733,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Evidence collection during incident analysis is documented and maintained in issue tracking tools to support investigation and reporting.</t>
+          <t>Privacy and protection of personally identifiable information is ensured per relevant legislation and GDPR compliance.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Forensic evidence gathered on business laptop and Google account; evidence filed with Operational Director.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Forensic evidence collected and securely filed; evidence used to support investigation and legal action.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Include evidence handling procedures and chain of custody documentation.</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>No formal evidence handling procedures included.</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Submit documented evidence collection and handling procedures.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx, Section 3.3 Privacy and protection of personally identifiable information; Section 5.1.1 Data Protection; Business Continuity Plan Appendix 1 Incident Response Plan includes data leakage response.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2087,48 +1763,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A.5.29</t>
+          <t>A.5.35</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Information security during disruption</t>
+          <t>Independent review of information security</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines procedures to manage information security during disruptive incidents, including recovery priorities and communication.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Annual internal and external ISO 27001 audits are conducted; ISSC and ISWG review security policies and incidents.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 8.2.7: 'Yearly ISO internal and external audit required'; Section 2.1.3 Security Organisation Policy: 'Reviewed yearly by ISSC and ISWG'; Section 2.2 and 2.3 ISSC and ISWG responsibilities.</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Provide Business Continuity Plan or disruption management procedures.</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding information security during disruption.</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Submit Business Continuity Plan or equivalent documentation.</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5,9,10</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2136,52 +1808,40 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A.5.30</t>
+          <t>A.5.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICT readiness for business continuity</t>
+          <t>Compliance with policies and standards for information security</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ICT resources and recovery plans are defined with responsible persons and recovery time objectives to ensure readiness.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Policies and standards are enforced with defined roles, disciplinary processes, and regular reviews; non-compliance leads to disciplinary action.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 1.5 Roles and Responsibilities; Section 2.3 Disciplinary process; Section 9.4 Non-Compliance; Section 10.1 Review of information security.</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Provide ICT recovery plans and resource listings.</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding ICT readiness.</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Submit ICT recovery and readiness documentation.</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2189,42 +1849,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A.5.31</t>
+          <t>A.5.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Identification of legal, statutory, regulatory and contractual requirements</t>
+          <t>Documented operating procedures</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Legal, regulatory, contractual requirements are identified and maintained in reference documents and compliance processes.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>Operating procedures are documented, maintained, and authorised for incident management, change management, backup, recovery, and other key processes.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 6.1 Documented Operating procedures: 'Operating procedures should be treated as formal documents and changes authorised'; 'Includes incident management, change management, backup and restoration procedures'.</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Provide compliance registers or legal requirement documentation.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding identification of legal and regulatory requirements.</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Submit compliance documentation.</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2232,7 +1884,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5,6,9,10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2242,52 +1894,40 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A.5.32</t>
+          <t>A.5.4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Intellectual property rights</t>
+          <t>Management responsibilities</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Procedures ensure compliance with intellectual property rights including copyright and licensing.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Management is responsible for setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement. Operational Director and ISSC have defined responsibilities.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities (Executive responsibilities), Section 10.1 Review of information security; Business Continuity Plan E-WISE - Section 3.3 Developing action plans (Operational Director’s role).</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Provide documented procedures on intellectual property rights management.</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding intellectual property rights.</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Submit intellectual property management documentation.</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2295,52 +1935,40 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A.5.33</t>
+          <t>A.5.5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Protection of records</t>
+          <t>Contact with authorities</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Records and information disposal are securely managed with shredding and overwriting procedures.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Contact details and procedures for engaging with local authorities (police, fire department) are defined in incident response plans.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan (Page 11) - Facility disasters, fire, water damage etc. - Local authorities, police, fire department, call 112.</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Provide records management and disposal procedures.</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding protection of records.</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Submit records protection and disposal documentation.</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2348,12 +1976,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A.5.34</t>
+          <t>A.5.6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Privacy and protection of PII</t>
+          <t>Contact with special interest groups</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,39 +1991,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Privacy and protection of personally identifiable information are ensured in compliance with GDPR and relevant legislation.</t>
+          <t>The organisation maintains subscriptions and receives security news from external vendors, forums, newsletters, and government security authorities.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Vendor risk assessment - Jumpcloud [Internal].docx.pdf - Section 4.0 Compliance with regulatory requirements including GDPR compliance documentation.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.22\Vendor risk assesment - Jumpcloud [Internal].docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Vendor provides documented GDPR compliance and incident reporting mechanisms; staff undergo security awareness training; no compliance incidents reported.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Include internal privacy policies and data protection impact assessments.</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>No internal privacy policy or DPIA evidence included.</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Submit internal privacy and data protection documentation.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 2.1.7 and 2.1.8 - Receiving security news from external sources and local government security authorities.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2403,7 +2011,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2413,42 +2021,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A.5.35</t>
+          <t>A.5.7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Independent review of information security</t>
+          <t>Threat intelligence</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Annual internal and external ISO 27001 audits and reviews by ISSC and ISWG are conducted to ensure compliance.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>The organisation subscribes to vulnerability and virus breakout notifications and circulates relevant information to support teams.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 6.5.2 - IT Security function subscriptions to vulnerability and virus breakout notification mechanisms.</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Provide audit reports or review meeting minutes.</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding independent reviews.</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Submit audit and review documentation.</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2456,7 +2056,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5,9,10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2466,40 +2066,44 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A.5.36</t>
+          <t>A.5.8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Compliance with policies and standards for information security</t>
+          <t>Information security in project management</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Compliance is enforced through policies, disciplinary processes, audits, and management reviews.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Project plans are reviewed for compliance with security policy by ISSC and ISWG; change management and SDLC policies are documented and enforced.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Sections 2.1.5, 6.2 Operational change control, 8.1 Security in application development, 2.2 and 2.3 ISSC and ISWG responsibilities.</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Provide evidence of compliance enforcement such as disciplinary records or audit findings.</t>
+          <t>Evidence controls are applied\A.5.8\4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>No new evidence found in the text regarding compliance enforcement.</t>
+          <t>System Development Life Cycle document details testing phases in CI/CD pipeline including unit, integration, performance, vulnerability, and acceptance testing. Branch protection rules require approvals for staging and production merges. Security policies under investigation include code scanning alerts and security policy enforcement.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Submit compliance enforcement documentation.</t>
+          <t>Complete and formalize security policies under investigation; document results of security testing and integrate findings into development lifecycle.</t>
         </is>
       </c>
     </row>
@@ -2515,42 +2119,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A.5.37</t>
+          <t>A.5.9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Documented operating procedures</t>
+          <t>Inventory of information and other associated assets</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Operating procedures are documented and maintained for key processes including incident management, change management, and backup.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>IT Asset Managers maintain and periodically update hardware and software inventories and perform annual physical checks.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities (IT Asset Managers), Section 6.11 Asset Management.</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Provide documented operating procedures for key processes.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding documented operating procedures.</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Submit documented procedures.</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2578,32 +2174,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks are performed on candidates in accordance with laws and business needs.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>Background verification and competence checks are performed on all candidates proportional to business requirements.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx, Section 2.1 Screening: 'Background checks (CV), meetings, security tests, references, certificate of conduct as applicable'.</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Provide screening procedures or records.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding screening.</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Submit screening documentation.</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2631,32 +2219,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Information Security Policy includes screening, background checks, and termination procedures; Business Continuity Plan mentions HR responsibilities for site access and transportation.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Develop and document formal terms and conditions of employment that explicitly include information security responsibilities and obligations.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding terms and conditions of employment.</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Submit employment contract templates or clauses covering security obligations.</t>
-        </is>
-      </c>
+          <t>The Information Security Policy [Internal].docx includes screening, background checks, and competence requirements for employment. It references documented procedures for equipment usage and termination processes. However, explicit terms and conditions of employment related to information security are not fully detailed.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>No explicit documented terms and conditions of employment that include information security obligations are presented. The Business Continuity Plan does not address this control.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Develop and document clear terms and conditions of employment that explicitly include information security responsibilities and obligations, and ensure these are communicated to all employees.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2684,32 +2272,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>All employees and contractors must receive appropriate awareness, education, and training on organizational policies and procedures related to their job function.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>All employees and relevant contractors must receive appropriate awareness, education, and training on organizational policies and procedures related to their job function.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.2 Information security awareness, education and training.</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Provide training records or awareness program documentation.</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding awareness and training.</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Submit training schedules and attendance records.</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2737,32 +2317,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination of employment.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action, including termination of employment.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.3 Disciplinary process.</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Provide disciplinary process documentation and records of enforcement.</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding disciplinary processes.</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Submit disciplinary policy and enforcement evidence.</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2795,39 +2367,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Access to information systems and physical access must be removed on termination day; company belongings must be returned; documented termination and role change processes are in place.</t>
+          <t>At termination, access to information systems and physical access must be removed the same day. Company belongings must be returned. Documented processes for termination and role changes are in place.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee.docx.pdf - Pages 1-2: Incident involving data leakage during employee offboarding and corrective actions including access removal and asset return.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.25\#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Investigation and corrective actions included removal of access on termination day, return of company assets, and legal agreements ensuring no retention of company information.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Include formal termination procedures and access removal checklists.</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>No formal termination procedure document included.</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Submit documented termination and access removal procedures.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2851,32 +2403,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses; internal employees are bound by confidentiality clauses in contracts.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses in contracts. Employee NDAs required by third parties must be approved and signed accordingly.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 3.2 Non-Disclosure Agreements.</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Provide NDA templates or signed agreements.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding NDAs.</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Submit confidentiality agreement documentation.</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2900,32 +2444,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Business Continuity Plan allows most employees to work from home/cloud; mobile device policy and remote access controls exist but no detailed remote working security policy found.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Develop and document a comprehensive remote working security policy addressing access controls, device security, and user responsibilities.</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding remote working policies.</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Submit remote working security policy.</t>
-        </is>
-      </c>
+          <t>The Business Continuity Plan states that all employees except Studio Department can work from home in the cloud. The Information Security Policy includes mobile device and remote access policies requiring approval and security controls.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation; Information Security Policy [Internal].docx - Chapter 8 Mobile Computing (Telecommuting), Section 8.1 Mobile device policy; Section 6.9 Network Security Policy (remote access controls).</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>No explicit comprehensive remote working policy covering all security aspects such as secure connections, user responsibilities, and monitoring is detailed.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Develop and document a formal remote working policy addressing security requirements, user responsibilities, and technical controls for remote access.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2949,32 +2493,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Procedures for reporting security incidents are established; users must report security violations immediately; incident management processes are defined.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>Procedures for reporting information security events are established. Users must report security violations immediately. Incident management processes are defined.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 9 Management of Information Security Incidents, Section 9.1 Responsibilities and procedures; Chapter 5 Personnel Security, Section 5.1.4 IT Security; Section 6.5 Security incident management.</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Provide incident reporting procedures and evidence of communication to users.</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding event reporting.</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Submit incident reporting procedures and awareness materials.</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3002,32 +2538,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Physical access is controlled via card swipe systems and personal keys; central alarm systems per floor; secured server racks; visitor escort policies.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Physical access is secured via card swipe systems, personal keys, and alarm systems. Access to system racks and rooms is restricted and locked by default.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, clauses 7.6.1 to 7.6.4.</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Provide physical security access control records or system descriptions.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding physical security perimeter.</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Submit physical access control documentation.</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3041,42 +2569,34 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A.7.2</t>
+          <t>A.7.10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Physical entry controls</t>
+          <t>Storage media</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Access to buildings and rooms controlled by card swipe, keys; keys signed out and returned; visitors escorted; emergency access procedures exist.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>Storage media disposal and handling policies are defined. Media must be destroyed securely with evidence retained. Backup media stored securely off-site or in cloud. Regular audits on portable storage device usage.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 6.8 Backup &amp; Restoration Policy; Section 6.10 End-point Security Policy; Section 9.3 Information Disposal.</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Provide visitor logs, key management records, or emergency access procedures.</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding physical entry controls.</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Submit physical entry control documentation.</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3090,52 +2610,48 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A.7.3</t>
+          <t>A.7.11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Securing offices, rooms and facilities</t>
+          <t>Supporting utilities</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Server racks locked; doors locked by default; access restricted to authorized personnel; physical security monitored.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Provide physical security monitoring records or access logs.</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding securing offices and facilities.</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Submit physical security documentation.</t>
-        </is>
-      </c>
+          <t>Business Continuity Plan lists electricity and other external services contacts and responsibilities. No detailed controls on utilities protection or redundancy are described.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.9 Required resources; Appendix 1 Incident Response Plan; Appendix 5 Key Contacts.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>No documented controls for ensuring availability and protection of supporting utilities.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Develop and document controls for supporting utilities including redundancy, monitoring, and maintenance.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
@@ -3143,42 +2659,34 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A.7.4</t>
+          <t>A.7.12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Physical security monitoring</t>
+          <t>Cabling security</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alarm systems per floor exist; no explicit mention of CCTV or continuous monitoring.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Cabling must be installed and secured according to local or European regulations.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 6.9 Network Security Policy, clause 6.9.37 Cabling security.</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Implement and document physical security monitoring measures including CCTV and intrusion detection where applicable.</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding physical security monitoring.</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Submit physical security monitoring procedures and system descriptions.</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3192,42 +2700,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A.7.5</t>
+          <t>A.7.13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Protecting against physical and environmental threats</t>
+          <t>Equipment maintenance</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Business Continuity Plan addresses facility disasters and contacts local authorities; no detailed environmental controls described.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Develop and document physical and environmental protection controls to mitigate threats like fire, flood, and other hazards.</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding physical/environmental protection.</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Submit environmental protection controls documentation.</t>
-        </is>
-      </c>
+          <t>The Business Continuity Plan and Information Security Policy mention equipment repair and replacement decisions during disruptive incidents and responsibility assignments for equipment repair and purchasing.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan (Pages 9-10): Section 3.2 Assessment of the situation &amp; determining options and responsibilities; Section 3.3 Developing action plans. Information Security Policy (Chapter 6.11 Asset Management, 6.11.4, 6.11.5) mentions proper purchase and disposal of hardware and software.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>No explicit documented procedures or schedules for regular preventive maintenance of equipment are described.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Develop and document formal equipment maintenance procedures including preventive maintenance schedules and responsibilities.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3241,42 +2749,34 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A.7.6</t>
+          <t>A.7.14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Working in secure areas</t>
+          <t>Secure disposal or re‑use of equipment</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Access to secure areas restricted to authorized personnel; visitors escorted; no detailed procedures for working in secure areas.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>Information Security Policy details secure disposal of information storage media ensuring data recovery is not possible, with evidence retention and compliance with local regulations.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.8.8 Media Disposal, 6.11.4, 6.11.5) describes secure destruction of media and formal disposal processes.</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Establish and document procedures for working securely in secure areas including access, supervision, and monitoring.</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding working in secure areas.</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Submit procedures for secure area working.</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3290,42 +2790,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A.7.7</t>
+          <t>A.7.2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Clear desk and clear screen</t>
+          <t>Physical entry controls</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Clear desk recommended; personal information and critical information must not be left unattended; regular internal audits performed.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>Access to buildings and secure areas is controlled by card swipe, keys, and escorting of visitors. Emergency access procedures exist.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, clauses 7.6.2, 7.6.6, 7.6.9, 7.6.10.</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Provide audit reports or awareness materials on clear desk and screen policies.</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding clear desk and screen.</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Submit clear desk/screen policy evidence.</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3339,48 +2831,44 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A.7.8</t>
+          <t>A.7.3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Equipment siting and protection</t>
+          <t>Securing offices, rooms and facilities</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Equipment inventory and asset management described; no explicit controls on equipment siting or protection from environmental or unauthorized access.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>System racks and rooms are locked and access is limited to authorized personnel. Higher levels of security can be implemented on request.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, clauses 7.6.3, 7.6.4.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Define and document equipment siting and protection controls to prevent damage or unauthorized access.</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding equipment siting and protection.</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Submit equipment siting and protection documentation.</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
@@ -3388,42 +2876,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A.7.9</t>
+          <t>A.7.4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Security of assets off-premises</t>
+          <t>Physical security monitoring</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Mobile device policy includes protection of devices off-premises; equipment must be returned on termination; use of encryption on laptops.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Provide mobile device policy and evidence of enforcement.</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding off-premises asset security.</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Submit mobile device security documentation.</t>
-        </is>
-      </c>
+          <t>The document mentions alarm systems per floor with codes changed yearly if possible. No explicit mention of CCTV or continuous monitoring is found.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, clause 7.6.1.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Lack of explicit physical security monitoring controls such as CCTV, intrusion detection, or logging of access events.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Implement and document physical security monitoring measures including CCTV, access logs, and intrusion detection systems.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3437,42 +2925,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A.7.10</t>
+          <t>A.7.5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Storage media</t>
+          <t>Protecting against physical and environmental threats</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Storage media disposal and handling policies defined; media destruction procedures in place; backups stored securely off-site.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Provide media handling and disposal procedures.</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding storage media controls.</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Submit storage media management documentation.</t>
-        </is>
-      </c>
+          <t>The Business Continuity Plan addresses restoration and recovery from physical disasters (fire, water damage) and contacts local authorities and insurance. The Information Security Policy references local country regulations for protection against natural disasters and malicious attacks.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan (Facility disasters); Information Security Policy [Internal].docx - Section 7.6 Physical Access, clause 7.6.12.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>No detailed documented controls for environmental protection (fire suppression, HVAC, flood protection) or risk assessments for physical/environmental threats.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Develop and document detailed physical and environmental protection controls and risk assessments.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3486,42 +2974,34 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A.7.11</t>
+          <t>A.7.6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Supporting utilities</t>
+          <t>Working in secure areas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Business Continuity Plan lists electricity and facilities contacts; no detailed controls for utilities protection or redundancy.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Access to secure areas is restricted to authorized personnel; visitors and uninducted staff must be escorted at all times.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, clauses 7.6.8, 7.6.9.</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Develop and document controls for supporting utilities including redundancy, monitoring, and maintenance.</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding supporting utilities.</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Submit supporting utilities control documentation.</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3535,42 +3015,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A.7.12</t>
+          <t>A.7.7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cabling security</t>
+          <t>Clear desk and clear screen</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cabling must be installed and secured according to local or European regulations.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Clear desk policy is recommended. Personal belongings should be stored securely. Personal information and critical information must be destroyed properly. Internal audits are performed regularly.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 5.2 General Security policy, clauses 5.2.3, 5.2.4.</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Provide cabling installation and security procedures.</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding cabling security.</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Submit cabling security documentation.</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3584,42 +3056,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A.7.13</t>
+          <t>A.7.8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Equipment maintenance</t>
+          <t>Equipment siting and protection</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The Business Continuity Plan and Information Security Policy mention equipment repair and replacement decisions during disruptive incidents and responsibility assignments for equipment repair and purchasing.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Develop and document formal equipment maintenance procedures and schedules to ensure ongoing maintenance and reduce risk of failure.</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>No detailed documented procedures or schedules for regular equipment maintenance found in the text.</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Submit equipment maintenance procedures and schedules.</t>
-        </is>
-      </c>
+          <t>Equipment is managed by IT Asset Managers with inventories and physical checks. Equipment racks are locked. No explicit detailed controls on equipment siting or protection from environmental hazards are described.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 6 IT Operations Controls, Section 6.11 Asset Management; Section 7.6 Physical Access.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Lack of documented procedures for equipment siting, protection from damage, and environmental controls.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Document and implement equipment siting and protection controls including environmental safeguards.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3633,42 +3105,34 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A.7.14</t>
+          <t>A.7.9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Secure disposal or re‑use of equipment</t>
+          <t>Security of assets off-premises</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Information disposal and media disposal policies are documented, including secure destruction of media and return of company equipment upon termination.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Mobile devices and laptops are controlled with policies for usage, encryption, and return upon termination. Off-site working is allowed with controls. Portable storage devices are discouraged and controlled.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.1.2 Equipment usage; Chapter 5 Personnel Security, Section 5.1.11 Mobile equipment Usage; Section 6.10 End-point Security Policy.</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Provide documented procedures for secure disposal or reuse of equipment.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding secure disposal or reuse of equipment.</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Submit disposal and reuse procedures.</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3696,38 +3160,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Policies cover management, protection, and secure use of user endpoint devices including laptops, mobile devices, and workstations.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Policies cover endpoint device usage, borrowing procedures, return on termination, endpoint security including antivirus, patching, and restrictions on software installation.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 2.1.2 Equipment usage, Section 6.10 End-point Security Policy, Section 5.1.11 Mobile equipment usage). Business Continuity Plan (Section 2.9 Required resources) lists IT equipment availability.</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Provide endpoint device management policies and usage guidelines.</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding user endpoint device management.</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Submit endpoint device policies.</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -3735,52 +3195,40 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A.8.2</t>
+          <t>A.8.10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Privileged access rights</t>
+          <t>Information deletion</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Privileged access rights are controlled by formal authorization, minimum necessary assignment, and segregation from regular user IDs.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>Information disposal is performed securely with shredding or overwriting, and physical media transfer is discontinued.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 9.3 Information Disposal, 6.8.8 Media Disposal).</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Provide privileged access management procedures and authorization records.</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding privileged access rights.</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Submit privileged access management documentation.</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -3788,42 +3236,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A.8.3</t>
+          <t>A.8.11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Information access restriction</t>
+          <t>Data masking</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Access to information and systems is controlled on a need-to-know basis with formal access control policies and user access management.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Provide access restriction policies and user access review records.</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding information access restriction.</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Submit access control policies and review evidence.</t>
-        </is>
-      </c>
+          <t>Testing environments should use anonymised or pseudonymised data; unused test environments are reviewed regularly.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 8.1.10 Testing and data masking).</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No detailed data masking procedures or tools described beyond testing environment data handling.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Develop formal data masking policies and implement tools for production data protection during testing and development.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3837,48 +3285,52 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A.8.4</t>
+          <t>A.8.12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Access to source code</t>
+          <t>Data leakage prevention</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Access to source code is restricted and controlled with secure repositories and access control.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Provide source code access control policies and repository access logs.</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding source code access control.</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Submit source code access control documentation.</t>
-        </is>
-      </c>
+          <t>Data leakage incidents are addressed in the Incident Response Plan; sharing of information with external parties is controlled via NDAs and contracts.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan (Appendix 1 Incident Response Plan - Data leakage), Information Security Policy (Section 3.1 Business Partnership Security, 3.2 Non-Disclosure Agreements, 4.1.3 Reporting Information Assets).</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No explicit technical or procedural data leakage prevention controls described.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Implement and document specific data leakage prevention controls and monitoring mechanisms.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -3886,42 +3338,34 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A.8.5</t>
+          <t>A.8.13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Secure authentication</t>
+          <t>Information backup</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Strong authentication policies including password complexity, management, and two-factor authentication are implemented.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>Backup policies require periodic backups, secure storage, off-site retention, periodic testing, and documented restoration procedures.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.8 Backup &amp; Restoration Policy). Business Continuity Plan (Section 2.9 Required resources).</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Provide authentication policy documents and system configuration evidence.</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding secure authentication.</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Submit authentication policies and enforcement evidence.</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3939,42 +3383,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A.8.6</t>
+          <t>A.8.14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Capacity management</t>
+          <t>Redundancy of information processing facilities</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Capacity management is addressed through monitoring and planning of IT infrastructure and resources.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Provide capacity management plans and monitoring reports.</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding capacity management.</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Submit capacity management documentation.</t>
-        </is>
-      </c>
+          <t>Business Continuity Plan defines alternative sites and recovery time objectives; responsibilities for site access and transportation are assigned.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan (Section 2.6 Sites and transportation, Section 2.7 Order of recovery for activities, Appendix 3 List of Business Continuity Sites).</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>No explicit technical redundancy controls or infrastructure redundancy details provided.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Document and implement technical redundancy measures for critical information processing facilities.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3982,7 +3426,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3992,42 +3436,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A.8.7</t>
+          <t>A.8.15</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Protection against malware</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Comprehensive malware protection including prevention, detection, and recovery is implemented.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Logging policies require time synchronization, logging of all access, secure storage, and regular monitoring.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.14 Logging and Audit Policy).</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Provide malware protection policies and incident reports.</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding malware protection.</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Submit malware protection documentation.</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4035,7 +3471,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4045,42 +3481,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A.8.8</t>
+          <t>A.8.16</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Management of technical vulnerabilities</t>
+          <t>Monitoring activities</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Vulnerability management process including acquisition of vulnerability info, assessment, testing, and patch deployment is established.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>Procedures for monitoring, detecting, analyzing, and reporting security events and incidents are established.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 9.1 Responsibilities and procedures, 6.5 Security incident management). Business Continuity Plan (Appendix 1 Incident Response Plan).</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Provide vulnerability management procedures and patching records.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding vulnerability management.</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Submit vulnerability management documentation.</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4088,7 +3516,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4098,52 +3526,40 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A.8.9</t>
+          <t>A.8.17</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Configuration management</t>
+          <t>Clock synchronisation</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Configuration management is documented, reviewed, and controlled with change management processes.</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>All computing systems managed must synchronise time with a central time server to ensure accuracy of audit logs.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Section 6.14 Logging and Audit Policy, 6.14.1 Clock synchronisation - All computing systems managed must synchronise time with a central time server. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Provide configuration management policies and change logs.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding configuration management.</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Submit configuration management documentation.</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4151,42 +3567,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A.8.10</t>
+          <t>A.8.18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Information deletion</t>
+          <t>Use of privileged utility programs</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Information and media disposal policies ensure secure deletion and destruction of data and media.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+          <t>Privileged access rights are restricted and controlled by an authorization process; privileged utility programs or software require approval by IT department or system administrator.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Section 5.3 Management of privileged access rights; Section 7.2.9 A laptop or desktop computer used by employees are pre-installed by the IT department and there are no administrator privileges enabled. Privileged utility programs or software should be approved by the IT department or system administrator. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Provide information deletion policies and evidence of secure disposal.</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding information deletion.</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Submit information deletion documentation.</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4200,46 +3608,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A.8.11</t>
+          <t>A.8.19</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Data masking</t>
+          <t>Installation of software on operational systems</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>No explicit mention or policy on data masking or anonymization techniques in the documents.</t>
+          <t>Only licensed software owned by the company is allowed; unauthorized software installation is prohibited; software installation is controlled by IT department.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No references found in Business Continuity Plan or Information Security Policy regarding data masking.</t>
+          <t>Section 5.1.4 IT Security - Users may not load onto computers any software not provided by Reducate’s or group companies IT-department; Section 6.10 End-point Security Policy - PCs not managed by Administrators are only allowed to install licensed software owned by Reducate or Group Companies. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Develop and implement data masking policies and procedures, especially for use in testing and development environments.</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>No evidence found in the text regarding data masking.</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Create and document data masking controls.</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4253,42 +3649,34 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A.8.12</t>
+          <t>A.8.2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Data leakage prevention</t>
+          <t>Privileged access rights</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Data leakage incidents are addressed in incident response plans; some controls on information sharing and access exist.</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>Privileged access rights are restricted and controlled by formal authorization processes, with segregation of duties and periodic audits.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 5.3 Management of privileged access rights, Section 7.4 User Access Management, Section 7.2 Authorisation and Access Control).</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Implement and document technical data leakage prevention controls and monitoring.</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding technical data leakage prevention.</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Submit data leakage prevention controls and monitoring evidence.</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4296,7 +3684,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4306,52 +3694,40 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A.8.13</t>
+          <t>A.8.20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Information backup</t>
+          <t>Network security</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Comprehensive backup policies and procedures are documented, including frequency, retention, storage, testing, and restoration.</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t>Network security is maintained by firewalls, access control, logging, encryption for data over public networks, and regular patching of network devices.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Section 7.1 Network controls; Section 6.9 Network Security Policy - use of firewalls, access control, logging, encryption, patching, and configuration management. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Provide backup policy documents and test reports.</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding backup.</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Submit backup policies and testing evidence.</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4359,52 +3735,48 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A.8.14</t>
+          <t>A.8.21</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Redundancy of information processing facilities</t>
+          <t>Security of network services</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Business Continuity Plan addresses alternative sites and recovery time objectives; some redundancy implied but not detailed.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Document and implement detailed redundancy controls and infrastructure.</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding redundancy controls.</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Submit redundancy architecture and controls documentation.</t>
-        </is>
-      </c>
+          <t>Network services are controlled via firewalls and access control; however, explicit documented procedures for management of network services are not detailed.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Section 6.9 Network Security Policy describes firewall and network device management but lacks explicit documented procedures for network service management. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No explicit documented procedures for management and security of network services are described.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Develop and document formal procedures for management and security of network services including responsibilities, monitoring, and incident handling.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4412,42 +3784,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A.8.15</t>
+          <t>A.8.22</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Segregation of networks</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Logging policies and procedures are established including log management, retention, and monitoring.</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>Logical separation of networks is implemented using firewalls to prevent unauthorized access from public or wireless networks.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Section 7.2 Segregation in networks - firewalls installed and logical separation of company network; Section 6.9 Network Security Policy. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Provide logging policy documents and log review reports.</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding logging.</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Submit logging policies and monitoring evidence.</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4465,52 +3829,40 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A.8.16</t>
+          <t>A.8.23</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Monitoring activities</t>
+          <t>Web filtering</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Procedures for monitoring, detecting, analyzing, and reporting information security events are established.</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>Web filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and protect against threats.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Section 6.9.39 Web group filtering or URL Filtering should be implemented on your firewall, routers or switches. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Provide monitoring procedures and incident reports.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding monitoring activities.</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Submit monitoring procedures and evidence.</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4518,42 +3870,34 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A.8.17</t>
+          <t>A.8.24</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Clock synchronisation</t>
+          <t>Use of cryptography</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>All computing systems managed must synchronise time with a central time server to ensure accuracy of audit logs.</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>Encryption is used for HDDs, VPN connections, wireless networks, cloud applications, and TLS for web applications with minimum standards defined.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chapter 10 Cryptography - HDD encryption (Bitlocker, Filevault, Ecryptfs), VPN using IPSec with 3DES or AES, Wi-Fi encryption WPA/WPA2, TLS 1.2 minimum for cloud apps. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Provide clock synchronization policies and system configuration evidence.</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding clock synchronization.</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Submit clock synchronization documentation.</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,48 +3911,44 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A.8.18</t>
+          <t>A.8.25</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Use of privileged utility programs</t>
+          <t>Secure development life cycle</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Privileged utility programs or software should be approved by the IT department or system administrator; laptops/desktops have no administrator privileges enabled.</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>SDLC policies and procedures are documented; external providers’ SDLC reviewed; quality checks and testing are performed; change control processes are in place.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Section 8.1 Security in application development - documented SDLC policies, review of external providers, quality checks, testing, and change management. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Provide approval procedures and system configuration evidence.</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding privileged utility programs.</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Submit privileged utility program controls.</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4616,42 +3956,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A.8.19</t>
+          <t>A.8.26</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Installation of software on operational systems</t>
+          <t>Application security requirements</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Users are prohibited from installing unauthorized software; only licensed software owned by the company is allowed; anti-virus and patch management policies are enforced.</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data validation and privacy protections are included.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Section 8.1.23 Application security requirements including validation, privacy, encryption; Section 8.1 Security in application development. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Provide software installation policies and enforcement evidence.</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding software installation controls.</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Submit software installation policies.</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4659,7 +3991,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4669,48 +4001,44 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A.8.20</t>
+          <t>A.8.28</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Secure coding</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Network security is maintained by firewalls, access controls, logging, encryption for data over public networks, and regular patching of network devices.</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>Code is reviewed prior to release by skilled personnel other than the author; secure coding guidelines are followed; version control and secure repositories are used.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Section 8.1.17, 8.1.18 Code review and secure coding guidelines; secure code repository with access control and versioning. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Provide network security policies and monitoring reports.</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding network security.</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Submit network security documentation.</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4718,48 +4046,44 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A.8.21</t>
+          <t>A.8.29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Security of network services</t>
+          <t>Security testing in development and acceptance</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Network services are controlled via firewalls and access restrictions; however, explicit documented procedures for management of network services are not detailed.</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually; acceptance criteria and testing procedures are documented.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Section 8.1.19, 8.1.20 Security testing and PEN-tests; Section 8.2 Application development PEN-test &amp; audits. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Develop and document formal procedures for management and security of network services.</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding network service management.</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Submit network service management procedures.</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4767,52 +4091,40 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A.8.22</t>
+          <t>A.8.3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Segregation of networks</t>
+          <t>Information access restriction</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Logical separation of networks is enforced using firewalls to prevent unauthorized access from public or wireless networks.</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>Access to information and systems is controlled on a need-to-know basis, aligned with business requirements and classification schemes.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 5.2 Information access restriction, Section 3.1 Classification of information, Section 3.2 Labelling and handling of information).</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Provide network segregation policies and firewall configuration evidence.</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding network segregation.</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Submit network segregation documentation.</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4820,48 +4132,44 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A.8.23</t>
+          <t>A.8.30</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Web filtering</t>
+          <t>Outsourced development</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and protect against threats.</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>Outsourced development is controlled via contracts including licensing, code ownership, and security requirements; external providers’ credentials and references are verified.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Section 3 Business partnership and Outsourcing; Section 8.1.2 Licensing and code ownership agreements; Section 3.1.1 Credentials verification. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Provide web filtering policies and configuration evidence.</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding web filtering.</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Submit web filtering documentation.</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4869,48 +4177,44 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A.8.24</t>
+          <t>A.8.31</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Use of cryptography</t>
+          <t>Separation of development, test and production environments</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Encryption is used for HDDs, VPN connections, wireless networks, cloud applications (TLS 1.2+), and wireless access with WPA/WPA2; regular testing of TLS security is performed.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Development, test, and production environments are separated; access to these environments is restricted; test data is anonymised or masked.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Section 8.1.14, 8.1.15 Separation of environments; Section 8.1.21 No production data used for testing; test data sanitisation. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Provide cryptography policies and evidence of encryption implementation.</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding cryptography.</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Submit cryptography documentation.</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4918,12 +4222,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A.8.25</t>
+          <t>A.8.32</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Secure development life cycle</t>
+          <t>Change management</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4933,49 +4237,25 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Documented SDLC policies and procedures exist; external providers’ SDLC reviewed; quality checks and periodic reviews are performed.</t>
+          <t>Changes to information processing facilities and systems are controlled via documented change management processes including review, approval, testing, and communication.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>System development life cycle [Confidential].pptx.pdf - Pages 3-5: Detailed SDLC including testing stages, branch protection, pull-request strategy, and code review.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>(Evidence controls are applied\A.5.8\4.4.1.6.1 System development life cycle [Confidential].pptx.pdf)</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>SDLC includes unit, integration, performance, vulnerability, and acceptance testing; branch protection rules require approvals; code reviews performed; external provider SDLC under review.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Include formal SDLC policy documents and evidence of external provider SDLC reviews.</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>GitHub security policies under investigation; no formal external provider SDLC review evidence.</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Finalize and document SDLC policies and external provider reviews.</t>
-        </is>
-      </c>
+          <t>Section 6.2 Operational change control; Section 6.1 Documented Operating procedures; Section 8.1.11-8.1.13 Change control for software changes. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4983,42 +4263,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A.8.26</t>
+          <t>A.8.33</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Application security requirements</t>
+          <t>Test information</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data input validation and privacy protections are included.</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>Test environments use limited, anonymised or masked data; production data is not used for testing; test data is removed before production deployment.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Section 8.1.21 No production data used for testing; test data sanitisation; Section 8.1.22 Test data removed before production. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Provide application security requirement documents and implementation evidence.</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding application security requirements.</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Submit application security documentation.</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5032,52 +4304,48 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A.8.27</t>
+          <t>A.8.34</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Secure systems architecture and engineering principles</t>
+          <t>Protection of information systems during audit testing</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>System hardening and minimal package installation are required for Unix systems; IP restrictions and removal of unnecessary services are enforced; however, no comprehensive documented architecture principles are detailed.</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Develop and document comprehensive secure systems architecture and engineering principles.</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding secure systems architecture.</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Submit secure architecture and engineering principles documentation.</t>
-        </is>
-      </c>
+          <t>Security incident management and logging policies exist; however, explicit controls or procedures for protecting systems during audit testing are not detailed.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Section 6.5 Security incident management; Section 6.14 Logging and Audit Policy; No explicit mention of audit testing protection. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>No explicit documented procedures for protecting information systems during audit testing.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Develop and document procedures to ensure protection and integrity of information systems during audit testing activities.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5085,52 +4353,40 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A.8.28</t>
+          <t>A.8.4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Secure coding</t>
+          <t>Access to source code</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Code is reviewed prior to release by personnel other than the author; secure coding guidelines are followed; code repositories enforce access control and versioning.</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
+          <t>Access to source code is restricted and controlled; development code is stored in secure repositories with access control and segregation of duties.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 8.1 Security in application development, 8.1.17 Development code repository, 8.1.18 Code review).</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Provide secure coding guidelines and code review records.</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding secure coding.</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Submit secure coding documentation.</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5138,48 +4394,44 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A.8.29</t>
+          <t>A.8.5</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Security testing in development and acceptance</t>
+          <t>Secure authentication</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually; acceptance criteria and testing procedures are documented.</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
+          <t>Authentication uses unique user IDs, strong password policies, two-factor authentication, and secure password management.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 4.1 Use of secret authentication information, Section 7.1 Authentication, Section 7.3 Password Policy, Section 7.2.2 Two-factor authentication).</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Provide security testing procedures and PEN-test reports.</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding security testing.</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Submit security testing documentation.</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5187,42 +4439,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A.8.30</t>
+          <t>A.8.6</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Outsourced development</t>
+          <t>Capacity management</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Outsourced development requires review of SDLC methodology; licensing, code ownership, and IP rights must be agreed in contracts; PEN-tests and ISO certifications are required for contractors.</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>Capacity utilisation monitoring and planning is included in business partnership contracts and change management processes.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 3.3 Business Partnership Contracts, 6.1 Documented Operating procedures, 6.2 Operational change control).</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Provide outsourced development contracts and SDLC review records.</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding outsourced development.</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Submit outsourced development documentation.</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5230,7 +4474,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5240,42 +4484,34 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A.8.31</t>
+          <t>A.8.7</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Separation of development, test and production environments</t>
+          <t>Protection against malware</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated; access to development and test systems is restricted; test data is anonymised or masked.</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>Malware protection includes prohibition of unauthorized software, mandatory antivirus installation and updates, real-time scanning, and incident reporting.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.6 Protection against malicious software, 5.1.4 IT Security). Business Continuity Plan (Appendix 1 Incident Response Plan).</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Provide environment separation policies and access control evidence.</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding environment separation.</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Submit environment separation documentation.</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5293,48 +4529,44 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A.8.32</t>
+          <t>A.8.8</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Change management</t>
+          <t>Management of technical vulnerabilities</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Changes to information processing facilities and systems are controlled via documented change management processes including review, approval, testing, and communication.</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>A formal patch management process exists including vulnerability information acquisition, assessment, testing, and deployment.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.2 Management of technical vulnerabilities, 6.5 Security incident management).</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Provide change management procedures and records.</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding change management.</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Submit change management documentation.</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5342,91 +4574,34 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A.8.33</t>
+          <t>A.8.9</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Test information</t>
+          <t>Configuration management</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Test environments use limited or anonymised data; production data is not used for testing; test data is removed before promotion to production.</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>Configuration management documents are maintained, reviewed annually, and updated upon significant changes.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Information Security Policy (Section 6.3 Configuration Management).</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Provide test data management policies and evidence of data anonymization.</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding test information controls.</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Submit test data management documentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>A.8.34</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Protection of information systems during audit testing</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Security incident management and logging policies exist; however, explicit controls or procedures for protecting information systems during audit testing are not detailed.</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Develop and document procedures to protect information systems during audit testing.</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>No new evidence found in the text regarding protection during audit testing.</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Submit audit testing protection procedures.</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
